--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5608" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -505,10 +517,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -552,28 +564,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -598,28 +610,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -678,10 +690,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -725,28 +737,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -771,28 +783,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -880,10 +892,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -927,28 +939,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -973,28 +985,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1053,10 +1065,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1100,28 +1112,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1146,28 +1158,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1226,10 +1238,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1273,28 +1285,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1319,28 +1331,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1399,10 +1411,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1446,28 +1458,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1492,28 +1504,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1601,10 +1613,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1648,28 +1660,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1694,28 +1706,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1774,10 +1786,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1821,28 +1833,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1867,28 +1879,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1947,10 +1959,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1994,28 +2006,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2040,28 +2052,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2120,10 +2132,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2167,28 +2179,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2213,28 +2225,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2293,10 +2305,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2340,28 +2352,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2386,28 +2398,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2466,10 +2478,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2513,28 +2525,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2559,28 +2571,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2639,10 +2651,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2686,28 +2698,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2732,28 +2744,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2812,10 +2824,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2859,28 +2871,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2905,28 +2917,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2985,10 +2997,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3032,28 +3044,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3078,28 +3090,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3158,10 +3170,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3205,28 +3217,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3251,28 +3263,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3331,10 +3343,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3378,28 +3390,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3424,28 +3436,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3504,10 +3516,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3551,28 +3563,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3597,28 +3609,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3706,10 +3718,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3753,28 +3765,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3799,28 +3811,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3879,10 +3891,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3926,28 +3938,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3972,28 +3984,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4052,10 +4064,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4099,28 +4111,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4145,28 +4157,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4515,10 +4527,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4562,28 +4574,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4608,28 +4620,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4688,10 +4700,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4735,28 +4747,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4781,28 +4793,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4861,10 +4873,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4908,28 +4920,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4954,28 +4966,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5034,10 +5046,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5081,28 +5093,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5127,28 +5139,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5265,10 +5277,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5312,28 +5324,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5358,28 +5370,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5438,10 +5450,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5485,28 +5497,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5531,28 +5543,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5640,10 +5652,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5687,28 +5699,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5733,28 +5745,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5813,10 +5825,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5860,28 +5872,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5906,28 +5918,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5986,10 +5998,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6033,28 +6045,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6079,28 +6091,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6188,10 +6200,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6235,28 +6247,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6281,28 +6293,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6390,10 +6402,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6437,28 +6449,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6483,28 +6495,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6563,10 +6575,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6610,28 +6622,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6656,28 +6668,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6736,10 +6748,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6783,28 +6795,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6829,28 +6841,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6909,10 +6921,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6956,28 +6968,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7002,28 +7014,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7082,10 +7094,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7129,28 +7141,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7175,28 +7187,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7255,10 +7267,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7302,28 +7314,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7348,28 +7360,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7457,10 +7469,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7504,28 +7516,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7550,28 +7562,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7630,10 +7642,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7677,28 +7689,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7723,28 +7735,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7803,10 +7815,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7850,28 +7862,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7896,28 +7908,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7976,10 +7988,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8023,28 +8035,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8069,28 +8081,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8149,10 +8161,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8196,28 +8208,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8242,28 +8254,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8322,10 +8334,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8369,28 +8381,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8415,28 +8427,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8495,10 +8507,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8542,28 +8554,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8588,28 +8600,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8668,10 +8680,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8715,28 +8727,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8761,28 +8773,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8841,10 +8853,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8888,28 +8900,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8934,28 +8946,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9014,10 +9026,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9061,28 +9073,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9107,28 +9119,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9187,10 +9199,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9234,28 +9246,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9280,28 +9292,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9360,10 +9372,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9407,28 +9419,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9453,28 +9465,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9533,10 +9545,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9580,28 +9592,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="2">
+      <c r="A328" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="2">
+      <c r="C328" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9626,28 +9638,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="2">
+      <c r="C330" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="2">
+      <c r="D330" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="2">
+      <c r="I330" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9706,10 +9718,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="2" t="s">
+      <c r="J332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9753,28 +9765,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="2">
+      <c r="A334" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="2">
+      <c r="C334" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9799,28 +9811,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="2">
+      <c r="C336" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="2">
+      <c r="D336" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="2">
+      <c r="I336" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9879,10 +9891,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9926,28 +9938,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9972,28 +9984,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10052,10 +10064,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10099,28 +10111,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10145,28 +10157,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10254,10 +10266,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10301,28 +10313,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="2">
+      <c r="A353" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="2">
+      <c r="C353" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10347,28 +10359,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="2">
+      <c r="C355" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="2">
+      <c r="D355" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="2">
+      <c r="I355" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10427,10 +10439,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="2" t="s">
+      <c r="J357" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10474,28 +10486,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="2">
+      <c r="A359" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="2">
+      <c r="C359" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10520,28 +10532,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="2">
+      <c r="C361" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="2">
+      <c r="D361" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="2">
+      <c r="I361" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10600,10 +10612,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="2" t="s">
+      <c r="J363" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10647,28 +10659,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="2">
+      <c r="A365" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="2">
+      <c r="C365" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10693,28 +10705,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="2">
+      <c r="C367" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="2">
+      <c r="D367" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="2">
+      <c r="I367" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10773,10 +10785,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="2" t="s">
+      <c r="J369" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10820,28 +10832,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="2">
+      <c r="A371" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="2">
+      <c r="C371" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10866,28 +10878,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="2">
+      <c r="C373" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="2">
+      <c r="D373" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="2">
+      <c r="I373" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10946,10 +10958,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="2" t="s">
+      <c r="J375" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -10993,28 +11005,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="2">
+      <c r="A377" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="2">
+      <c r="C377" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11039,28 +11051,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="2">
+      <c r="C379" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="2">
+      <c r="D379" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="2">
+      <c r="I379" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11119,10 +11131,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="2" t="s">
+      <c r="J381" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11166,28 +11178,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="2">
+      <c r="A383" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="2">
+      <c r="C383" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11212,28 +11224,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="2">
+      <c r="B385" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="2">
+      <c r="C385" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="2">
+      <c r="D385" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="2">
+      <c r="E385" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="2">
+      <c r="F385" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="2">
+      <c r="G385" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="2">
+      <c r="H385" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="2">
+      <c r="I385" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11292,10 +11304,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="2" t="s">
+      <c r="J387" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11339,28 +11351,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="2">
+      <c r="A389" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="2">
+      <c r="B389" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="2">
+      <c r="C389" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="2">
+      <c r="E389" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="2">
+      <c r="F389" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="2">
+      <c r="G389" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="2">
+      <c r="H389" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11385,28 +11397,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="2">
+      <c r="B391" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="2">
+      <c r="C391" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="2">
+      <c r="D391" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="2">
+      <c r="E391" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="2">
+      <c r="F391" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="2">
+      <c r="G391" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="2">
+      <c r="H391" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="2">
+      <c r="I391" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11465,10 +11477,10 @@
       <c r="I393">
         <f>((C393-C392)^2+(D393- D392)^2)^.5</f>
       </c>
-      <c r="J393" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K393" s="2" t="s">
+      <c r="J393" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K393" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L393" t="n">
@@ -11512,28 +11524,28 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="s" s="2">
+      <c r="A395" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B395" t="s" s="2">
+      <c r="B395" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C395" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D395" t="s" s="2">
+      <c r="C395" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D395" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E395" t="s" s="2">
+      <c r="E395" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F395" t="s" s="2">
+      <c r="F395" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G395" t="s" s="2">
+      <c r="G395" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H395" t="s" s="2">
+      <c r="H395" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11558,28 +11570,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="B397" t="s" s="2">
+      <c r="B397" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C397" t="s" s="2">
+      <c r="C397" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D397" t="s" s="2">
+      <c r="D397" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E397" t="s" s="2">
+      <c r="E397" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F397" t="s" s="2">
+      <c r="F397" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G397" t="s" s="2">
+      <c r="G397" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H397" t="s" s="2">
+      <c r="H397" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I397" t="s" s="2">
+      <c r="I397" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11638,10 +11650,10 @@
       <c r="I399">
         <f>((C399-C398)^2+(D399- D398)^2)^.5</f>
       </c>
-      <c r="J399" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K399" s="2" t="s">
+      <c r="J399" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K399" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L399" t="n">
@@ -11685,28 +11697,28 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="s" s="2">
+      <c r="A401" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B401" t="s" s="2">
+      <c r="B401" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C401" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D401" t="s" s="2">
+      <c r="C401" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D401" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E401" t="s" s="2">
+      <c r="E401" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F401" t="s" s="2">
+      <c r="F401" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G401" t="s" s="2">
+      <c r="G401" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H401" t="s" s="2">
+      <c r="H401" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11731,28 +11743,28 @@
       </c>
     </row>
     <row r="403">
-      <c r="B403" t="s" s="2">
+      <c r="B403" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C403" t="s" s="2">
+      <c r="C403" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D403" t="s" s="2">
+      <c r="D403" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E403" t="s" s="2">
+      <c r="E403" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F403" t="s" s="2">
+      <c r="F403" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G403" t="s" s="2">
+      <c r="G403" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H403" t="s" s="2">
+      <c r="H403" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I403" t="s" s="2">
+      <c r="I403" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11811,10 +11823,10 @@
       <c r="I405">
         <f>((C405-C404)^2+(D405- D404)^2)^.5</f>
       </c>
-      <c r="J405" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K405" s="2" t="s">
+      <c r="J405" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K405" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L405" t="n">
@@ -11858,28 +11870,28 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="s" s="2">
+      <c r="A407" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B407" t="s" s="2">
+      <c r="B407" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C407" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D407" t="s" s="2">
+      <c r="C407" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D407" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E407" t="s" s="2">
+      <c r="E407" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F407" t="s" s="2">
+      <c r="F407" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G407" t="s" s="2">
+      <c r="G407" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H407" t="s" s="2">
+      <c r="H407" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11904,28 +11916,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="B409" t="s" s="2">
+      <c r="B409" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C409" t="s" s="2">
+      <c r="C409" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D409" t="s" s="2">
+      <c r="D409" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E409" t="s" s="2">
+      <c r="E409" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F409" t="s" s="2">
+      <c r="F409" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G409" t="s" s="2">
+      <c r="G409" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H409" t="s" s="2">
+      <c r="H409" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I409" t="s" s="2">
+      <c r="I409" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11984,10 +11996,10 @@
       <c r="I411">
         <f>((C411-C410)^2+(D411- D410)^2)^.5</f>
       </c>
-      <c r="J411" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K411" s="2" t="s">
+      <c r="J411" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K411" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L411" t="n">
@@ -12031,28 +12043,28 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="s" s="2">
+      <c r="A413" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B413" t="s" s="2">
+      <c r="B413" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C413" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D413" t="s" s="2">
+      <c r="C413" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D413" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E413" t="s" s="2">
+      <c r="E413" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F413" t="s" s="2">
+      <c r="F413" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G413" t="s" s="2">
+      <c r="G413" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H413" t="s" s="2">
+      <c r="H413" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12077,28 +12089,28 @@
       </c>
     </row>
     <row r="415">
-      <c r="B415" t="s" s="2">
+      <c r="B415" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C415" t="s" s="2">
+      <c r="C415" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D415" t="s" s="2">
+      <c r="D415" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E415" t="s" s="2">
+      <c r="E415" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F415" t="s" s="2">
+      <c r="F415" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G415" t="s" s="2">
+      <c r="G415" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H415" t="s" s="2">
+      <c r="H415" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I415" t="s" s="2">
+      <c r="I415" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12157,10 +12169,10 @@
       <c r="I417">
         <f>((C417-C416)^2+(D417- D416)^2)^.5</f>
       </c>
-      <c r="J417" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K417" s="2" t="s">
+      <c r="J417" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K417" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L417" t="n">
@@ -12204,28 +12216,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="s" s="2">
+      <c r="A419" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B419" t="s" s="2">
+      <c r="B419" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C419" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D419" t="s" s="2">
+      <c r="C419" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D419" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E419" t="s" s="2">
+      <c r="E419" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F419" t="s" s="2">
+      <c r="F419" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G419" t="s" s="2">
+      <c r="G419" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H419" t="s" s="2">
+      <c r="H419" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12250,28 +12262,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="B421" t="s" s="2">
+      <c r="B421" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C421" t="s" s="2">
+      <c r="C421" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D421" t="s" s="2">
+      <c r="D421" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E421" t="s" s="2">
+      <c r="E421" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F421" t="s" s="2">
+      <c r="F421" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G421" t="s" s="2">
+      <c r="G421" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H421" t="s" s="2">
+      <c r="H421" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I421" t="s" s="2">
+      <c r="I421" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12330,10 +12342,10 @@
       <c r="I423">
         <f>((C423-C422)^2+(D423- D422)^2)^.5</f>
       </c>
-      <c r="J423" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K423" s="2" t="s">
+      <c r="J423" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K423" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L423" t="n">
@@ -12377,28 +12389,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="s" s="2">
+      <c r="A425" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B425" t="s" s="2">
+      <c r="B425" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C425" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D425" t="s" s="2">
+      <c r="C425" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D425" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E425" t="s" s="2">
+      <c r="E425" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F425" t="s" s="2">
+      <c r="F425" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G425" t="s" s="2">
+      <c r="G425" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H425" t="s" s="2">
+      <c r="H425" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12423,28 +12435,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="B427" t="s" s="2">
+      <c r="B427" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C427" t="s" s="2">
+      <c r="C427" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D427" t="s" s="2">
+      <c r="D427" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E427" t="s" s="2">
+      <c r="E427" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F427" t="s" s="2">
+      <c r="F427" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G427" t="s" s="2">
+      <c r="G427" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H427" t="s" s="2">
+      <c r="H427" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I427" t="s" s="2">
+      <c r="I427" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12590,10 +12602,10 @@
       <c r="I432">
         <f>((C432-C431)^2+(D432- D431)^2)^.5</f>
       </c>
-      <c r="J432" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K432" s="2" t="s">
+      <c r="J432" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K432" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L432" t="n">
@@ -12637,28 +12649,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="s" s="2">
+      <c r="A434" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B434" t="s" s="2">
+      <c r="B434" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C434" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D434" t="s" s="2">
+      <c r="C434" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D434" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E434" t="s" s="2">
+      <c r="E434" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F434" t="s" s="2">
+      <c r="F434" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G434" t="s" s="2">
+      <c r="G434" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H434" t="s" s="2">
+      <c r="H434" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12683,28 +12695,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="B436" t="s" s="2">
+      <c r="B436" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C436" t="s" s="2">
+      <c r="C436" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D436" t="s" s="2">
+      <c r="D436" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E436" t="s" s="2">
+      <c r="E436" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F436" t="s" s="2">
+      <c r="F436" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G436" t="s" s="2">
+      <c r="G436" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H436" t="s" s="2">
+      <c r="H436" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I436" t="s" s="2">
+      <c r="I436" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12763,10 +12775,10 @@
       <c r="I438">
         <f>((C438-C437)^2+(D438- D437)^2)^.5</f>
       </c>
-      <c r="J438" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K438" s="2" t="s">
+      <c r="J438" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K438" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L438" t="n">
@@ -12810,28 +12822,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="s" s="2">
+      <c r="A440" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B440" t="s" s="2">
+      <c r="B440" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C440" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D440" t="s" s="2">
+      <c r="C440" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D440" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E440" t="s" s="2">
+      <c r="E440" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F440" t="s" s="2">
+      <c r="F440" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G440" t="s" s="2">
+      <c r="G440" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H440" t="s" s="2">
+      <c r="H440" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12856,28 +12868,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="B442" t="s" s="2">
+      <c r="B442" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C442" t="s" s="2">
+      <c r="C442" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D442" t="s" s="2">
+      <c r="D442" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E442" t="s" s="2">
+      <c r="E442" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F442" t="s" s="2">
+      <c r="F442" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G442" t="s" s="2">
+      <c r="G442" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H442" t="s" s="2">
+      <c r="H442" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I442" t="s" s="2">
+      <c r="I442" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12936,10 +12948,10 @@
       <c r="I444">
         <f>((C444-C443)^2+(D444- D443)^2)^.5</f>
       </c>
-      <c r="J444" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K444" s="2" t="s">
+      <c r="J444" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K444" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L444" t="n">
@@ -12983,28 +12995,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="s" s="2">
+      <c r="A446" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B446" t="s" s="2">
+      <c r="B446" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C446" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D446" t="s" s="2">
+      <c r="C446" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D446" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E446" t="s" s="2">
+      <c r="E446" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F446" t="s" s="2">
+      <c r="F446" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G446" t="s" s="2">
+      <c r="G446" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H446" t="s" s="2">
+      <c r="H446" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13029,28 +13041,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="B448" t="s" s="2">
+      <c r="B448" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C448" t="s" s="2">
+      <c r="C448" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D448" t="s" s="2">
+      <c r="D448" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E448" t="s" s="2">
+      <c r="E448" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F448" t="s" s="2">
+      <c r="F448" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G448" t="s" s="2">
+      <c r="G448" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H448" t="s" s="2">
+      <c r="H448" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I448" t="s" s="2">
+      <c r="I448" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13109,10 +13121,10 @@
       <c r="I450">
         <f>((C450-C449)^2+(D450- D449)^2)^.5</f>
       </c>
-      <c r="J450" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K450" s="2" t="s">
+      <c r="J450" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K450" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L450" t="n">
@@ -13156,28 +13168,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="s" s="2">
+      <c r="A452" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B452" t="s" s="2">
+      <c r="B452" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C452" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D452" t="s" s="2">
+      <c r="C452" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D452" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E452" t="s" s="2">
+      <c r="E452" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F452" t="s" s="2">
+      <c r="F452" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G452" t="s" s="2">
+      <c r="G452" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H452" t="s" s="2">
+      <c r="H452" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13202,28 +13214,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="B454" t="s" s="2">
+      <c r="B454" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C454" t="s" s="2">
+      <c r="C454" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D454" t="s" s="2">
+      <c r="D454" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E454" t="s" s="2">
+      <c r="E454" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F454" t="s" s="2">
+      <c r="F454" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G454" t="s" s="2">
+      <c r="G454" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H454" t="s" s="2">
+      <c r="H454" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I454" t="s" s="2">
+      <c r="I454" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13282,10 +13294,10 @@
       <c r="I456">
         <f>((C456-C455)^2+(D456- D455)^2)^.5</f>
       </c>
-      <c r="J456" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K456" s="2" t="s">
+      <c r="J456" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K456" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L456" t="n">
@@ -13329,28 +13341,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="s" s="2">
+      <c r="A458" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B458" t="s" s="2">
+      <c r="B458" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C458" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D458" t="s" s="2">
+      <c r="C458" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D458" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E458" t="s" s="2">
+      <c r="E458" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F458" t="s" s="2">
+      <c r="F458" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G458" t="s" s="2">
+      <c r="G458" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H458" t="s" s="2">
+      <c r="H458" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13375,28 +13387,28 @@
       </c>
     </row>
     <row r="460">
-      <c r="B460" t="s" s="2">
+      <c r="B460" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C460" t="s" s="2">
+      <c r="C460" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D460" t="s" s="2">
+      <c r="D460" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E460" t="s" s="2">
+      <c r="E460" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F460" t="s" s="2">
+      <c r="F460" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G460" t="s" s="2">
+      <c r="G460" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H460" t="s" s="2">
+      <c r="H460" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I460" t="s" s="2">
+      <c r="I460" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13455,10 +13467,10 @@
       <c r="I462">
         <f>((C462-C461)^2+(D462- D461)^2)^.5</f>
       </c>
-      <c r="J462" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K462" s="2" t="s">
+      <c r="J462" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K462" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L462" t="n">
@@ -13502,28 +13514,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="s" s="2">
+      <c r="A464" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B464" t="s" s="2">
+      <c r="B464" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C464" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D464" t="s" s="2">
+      <c r="C464" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D464" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E464" t="s" s="2">
+      <c r="E464" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F464" t="s" s="2">
+      <c r="F464" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G464" t="s" s="2">
+      <c r="G464" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H464" t="s" s="2">
+      <c r="H464" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13548,28 +13560,28 @@
       </c>
     </row>
     <row r="466">
-      <c r="B466" t="s" s="2">
+      <c r="B466" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C466" t="s" s="2">
+      <c r="C466" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D466" t="s" s="2">
+      <c r="D466" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E466" t="s" s="2">
+      <c r="E466" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F466" t="s" s="2">
+      <c r="F466" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G466" t="s" s="2">
+      <c r="G466" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H466" t="s" s="2">
+      <c r="H466" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I466" t="s" s="2">
+      <c r="I466" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13628,10 +13640,10 @@
       <c r="I468">
         <f>((C468-C467)^2+(D468- D467)^2)^.5</f>
       </c>
-      <c r="J468" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K468" s="2" t="s">
+      <c r="J468" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K468" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L468" t="n">
@@ -13675,28 +13687,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="s" s="2">
+      <c r="A470" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B470" t="s" s="2">
+      <c r="B470" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C470" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D470" t="s" s="2">
+      <c r="C470" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E470" t="s" s="2">
+      <c r="E470" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F470" t="s" s="2">
+      <c r="F470" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G470" t="s" s="2">
+      <c r="G470" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H470" t="s" s="2">
+      <c r="H470" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13721,28 +13733,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="B472" t="s" s="2">
+      <c r="B472" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C472" t="s" s="2">
+      <c r="C472" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D472" t="s" s="2">
+      <c r="D472" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E472" t="s" s="2">
+      <c r="E472" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F472" t="s" s="2">
+      <c r="F472" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G472" t="s" s="2">
+      <c r="G472" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H472" t="s" s="2">
+      <c r="H472" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I472" t="s" s="2">
+      <c r="I472" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13801,10 +13813,10 @@
       <c r="I474">
         <f>((C474-C473)^2+(D474- D473)^2)^.5</f>
       </c>
-      <c r="J474" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K474" s="2" t="s">
+      <c r="J474" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K474" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L474" t="n">
@@ -13848,28 +13860,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="s" s="2">
+      <c r="A476" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B476" t="s" s="2">
+      <c r="B476" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C476" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D476" t="s" s="2">
+      <c r="C476" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D476" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E476" t="s" s="2">
+      <c r="E476" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F476" t="s" s="2">
+      <c r="F476" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G476" t="s" s="2">
+      <c r="G476" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H476" t="s" s="2">
+      <c r="H476" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13894,28 +13906,28 @@
       </c>
     </row>
     <row r="478">
-      <c r="B478" t="s" s="2">
+      <c r="B478" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C478" t="s" s="2">
+      <c r="C478" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D478" t="s" s="2">
+      <c r="D478" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E478" t="s" s="2">
+      <c r="E478" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F478" t="s" s="2">
+      <c r="F478" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G478" t="s" s="2">
+      <c r="G478" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H478" t="s" s="2">
+      <c r="H478" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I478" t="s" s="2">
+      <c r="I478" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13974,10 +13986,10 @@
       <c r="I480">
         <f>((C480-C479)^2+(D480- D479)^2)^.5</f>
       </c>
-      <c r="J480" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K480" s="2" t="s">
+      <c r="J480" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K480" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L480" t="n">
@@ -14021,28 +14033,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="s" s="2">
+      <c r="A482" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B482" t="s" s="2">
+      <c r="B482" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C482" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D482" t="s" s="2">
+      <c r="C482" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E482" t="s" s="2">
+      <c r="E482" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F482" t="s" s="2">
+      <c r="F482" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G482" t="s" s="2">
+      <c r="G482" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H482" t="s" s="2">
+      <c r="H482" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14067,28 +14079,28 @@
       </c>
     </row>
     <row r="484">
-      <c r="B484" t="s" s="2">
+      <c r="B484" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C484" t="s" s="2">
+      <c r="C484" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D484" t="s" s="2">
+      <c r="D484" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E484" t="s" s="2">
+      <c r="E484" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F484" t="s" s="2">
+      <c r="F484" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G484" t="s" s="2">
+      <c r="G484" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H484" t="s" s="2">
+      <c r="H484" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I484" t="s" s="2">
+      <c r="I484" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14147,10 +14159,10 @@
       <c r="I486">
         <f>((C486-C485)^2+(D486- D485)^2)^.5</f>
       </c>
-      <c r="J486" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K486" s="2" t="s">
+      <c r="J486" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K486" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L486" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5608" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16824" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -344,10 +392,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -391,28 +439,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="E9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="4">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -437,28 +485,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -517,10 +565,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="J13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -564,28 +612,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="4">
+      <c r="A15" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="B15" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="4">
+      <c r="C15" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="E15" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="4">
+      <c r="F15" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="4">
+      <c r="G15" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="4">
+      <c r="H15" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -610,28 +658,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="4">
+      <c r="B17" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="4">
+      <c r="D17" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="4">
+      <c r="G17" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="4">
+      <c r="H17" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="4">
+      <c r="I17" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -690,10 +738,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -737,28 +785,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="4">
+      <c r="A21" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="4">
+      <c r="C21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -783,28 +831,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="4">
+      <c r="B23" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="4">
+      <c r="D23" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="4">
+      <c r="E23" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="4">
+      <c r="F23" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="4">
+      <c r="G23" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="4">
+      <c r="H23" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="4">
+      <c r="I23" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -892,10 +940,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="J26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -939,28 +987,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="4">
+      <c r="A28" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="4">
+      <c r="C28" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -985,28 +1033,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="4">
+      <c r="C30" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="4">
+      <c r="D30" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="4">
+      <c r="I30" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1065,10 +1113,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1112,28 +1160,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="4">
+      <c r="A34" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="4">
+      <c r="C34" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1158,28 +1206,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="4">
+      <c r="I36" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1238,10 +1286,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="J38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1285,28 +1333,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="4">
+      <c r="A40" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="4">
+      <c r="C40" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1331,28 +1379,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="4">
+      <c r="I42" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1411,10 +1459,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="4" t="s">
+      <c r="J44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1458,28 +1506,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="4">
+      <c r="A46" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="4">
+      <c r="C46" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1504,28 +1552,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="4">
+      <c r="D48" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="4">
+      <c r="I48" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1613,10 +1661,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="4" t="s">
+      <c r="J51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1660,28 +1708,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="4">
+      <c r="A53" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="4">
+      <c r="B53" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="4">
+      <c r="C53" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="4">
+      <c r="E53" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="4">
+      <c r="F53" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="4">
+      <c r="G53" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="4">
+      <c r="H53" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1706,28 +1754,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="C55" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="4">
+      <c r="D55" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="4">
+      <c r="G55" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="4">
+      <c r="H55" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="4">
+      <c r="I55" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1786,10 +1834,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="4" t="s">
+      <c r="J57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1833,28 +1881,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="4">
+      <c r="A59" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="4">
+      <c r="B59" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="4">
+      <c r="C59" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="4">
+      <c r="G59" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="4">
+      <c r="H59" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1879,28 +1927,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="4">
+      <c r="I61" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1959,10 +2007,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="4" t="s">
+      <c r="J63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2006,28 +2054,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="4">
+      <c r="A65" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="4">
+      <c r="B65" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="4">
+      <c r="C65" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="4">
+      <c r="E65" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="4">
+      <c r="F65" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="4">
+      <c r="G65" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="4">
+      <c r="H65" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2052,28 +2100,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="4">
+      <c r="B67" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="4">
+      <c r="C67" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="4">
+      <c r="D67" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="4">
+      <c r="G67" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="4">
+      <c r="H67" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="4">
+      <c r="I67" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2132,10 +2180,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="4" t="s">
+      <c r="J69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2179,28 +2227,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="4">
+      <c r="A71" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="4">
+      <c r="C71" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2225,28 +2273,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="4">
+      <c r="D73" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="4">
+      <c r="I73" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2305,10 +2353,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="4" t="s">
+      <c r="J75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2352,28 +2400,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="4">
+      <c r="A77" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="4">
+      <c r="C77" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2398,28 +2446,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="4">
+      <c r="C79" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="4">
+      <c r="D79" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="4">
+      <c r="G79" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="4">
+      <c r="H79" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="4">
+      <c r="I79" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2478,10 +2526,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="4" t="s">
+      <c r="J81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2525,28 +2573,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="4">
+      <c r="A83" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="4">
+      <c r="C83" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2571,28 +2619,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="4">
+      <c r="G85" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="4">
+      <c r="H85" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="4">
+      <c r="I85" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2651,10 +2699,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="4" t="s">
+      <c r="J87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2698,28 +2746,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="4">
+      <c r="C89" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2744,28 +2792,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="4">
+      <c r="I91" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2824,10 +2872,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="4" t="s">
+      <c r="J93" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2871,28 +2919,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="4">
+      <c r="A95" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="4">
+      <c r="C95" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2917,28 +2965,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="4">
+      <c r="C97" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="4">
+      <c r="D97" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="4">
+      <c r="I97" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2997,10 +3045,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="4" t="s">
+      <c r="J99" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3044,28 +3092,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="4">
+      <c r="A101" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="4">
+      <c r="C101" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="4">
+      <c r="E101" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="4">
+      <c r="F101" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="4">
+      <c r="G101" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="4">
+      <c r="H101" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3090,28 +3138,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="4">
+      <c r="C103" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="4">
+      <c r="D103" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="4">
+      <c r="I103" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3170,10 +3218,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="4" t="s">
+      <c r="J105" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3217,28 +3265,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="4">
+      <c r="A107" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="4">
+      <c r="C107" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3263,28 +3311,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="4">
+      <c r="C109" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="4">
+      <c r="D109" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="4">
+      <c r="I109" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3343,10 +3391,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="4" t="s">
+      <c r="J111" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3390,28 +3438,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="4">
+      <c r="A113" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="4">
+      <c r="C113" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3436,28 +3484,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="4">
+      <c r="C115" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="4">
+      <c r="D115" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="4">
+      <c r="I115" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3516,10 +3564,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="4" t="s">
+      <c r="J117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3563,28 +3611,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="4">
+      <c r="A119" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="4">
+      <c r="C119" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3609,28 +3657,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="C121" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="4">
+      <c r="D121" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="4">
+      <c r="I121" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3718,10 +3766,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="4" t="s">
+      <c r="J124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3765,28 +3813,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="4">
+      <c r="A126" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="4">
+      <c r="C126" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3811,28 +3859,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="4">
+      <c r="D128" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="4">
+      <c r="I128" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3891,10 +3939,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="4" t="s">
+      <c r="J130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3938,28 +3986,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="4">
+      <c r="C132" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3984,28 +4032,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="4">
+      <c r="I134" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4064,10 +4112,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="4" t="s">
+      <c r="J136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4111,28 +4159,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="4">
+      <c r="A138" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="4">
+      <c r="C138" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4157,28 +4205,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="4">
+      <c r="I140" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4527,10 +4575,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="4" t="s">
+      <c r="J152" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4574,28 +4622,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="4">
+      <c r="A154" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="4">
+      <c r="C154" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4620,28 +4668,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="4">
+      <c r="C156" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="4">
+      <c r="D156" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="4">
+      <c r="I156" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4700,10 +4748,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="4" t="s">
+      <c r="J158" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4747,28 +4795,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="4">
+      <c r="A160" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="4">
+      <c r="C160" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4793,28 +4841,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="4">
+      <c r="C162" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="4">
+      <c r="D162" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="4">
+      <c r="I162" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4873,10 +4921,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="4" t="s">
+      <c r="J164" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4920,28 +4968,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="4">
+      <c r="A166" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="4">
+      <c r="C166" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4966,28 +5014,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="4">
+      <c r="C168" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="4">
+      <c r="D168" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="4">
+      <c r="I168" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5046,10 +5094,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="4" t="s">
+      <c r="J170" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5093,28 +5141,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="4">
+      <c r="A172" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="4">
+      <c r="C172" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5139,28 +5187,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="4">
+      <c r="C174" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="4">
+      <c r="D174" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="4">
+      <c r="I174" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5277,10 +5325,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="4" t="s">
+      <c r="J178" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5324,28 +5372,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="4">
+      <c r="A180" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="4">
+      <c r="C180" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5370,28 +5418,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="4">
+      <c r="C182" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="4">
+      <c r="D182" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="4">
+      <c r="I182" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5450,10 +5498,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="4" t="s">
+      <c r="J184" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5497,28 +5545,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="4">
+      <c r="A186" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="4">
+      <c r="C186" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5543,28 +5591,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="4">
+      <c r="C188" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="4">
+      <c r="D188" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="4">
+      <c r="E188" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="4">
+      <c r="F188" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="4">
+      <c r="G188" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="4">
+      <c r="H188" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="4">
+      <c r="I188" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5652,10 +5700,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="4" t="s">
+      <c r="J191" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5699,28 +5747,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="4">
+      <c r="A193" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="4">
+      <c r="B193" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="4">
+      <c r="C193" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="4">
+      <c r="E193" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="4">
+      <c r="F193" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="4">
+      <c r="G193" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="4">
+      <c r="H193" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5745,28 +5793,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="4">
+      <c r="C195" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="4">
+      <c r="D195" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="4">
+      <c r="E195" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="4">
+      <c r="F195" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="4">
+      <c r="G195" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="4">
+      <c r="H195" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="4">
+      <c r="I195" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5825,10 +5873,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="4" t="s">
+      <c r="J197" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5872,28 +5920,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="4">
+      <c r="A199" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="4">
+      <c r="C199" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5918,28 +5966,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="4">
+      <c r="C201" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="4">
+      <c r="D201" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="4">
+      <c r="E201" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="4">
+      <c r="F201" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="4">
+      <c r="G201" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="4">
+      <c r="H201" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="4">
+      <c r="I201" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5998,10 +6046,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="4" t="s">
+      <c r="J203" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6045,28 +6093,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="4">
+      <c r="A205" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="4">
+      <c r="C205" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6091,28 +6139,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="4">
+      <c r="C207" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="4">
+      <c r="D207" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="4">
+      <c r="I207" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6200,10 +6248,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="4" t="s">
+      <c r="J210" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6247,28 +6295,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="4">
+      <c r="C212" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6293,28 +6341,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="4">
+      <c r="C214" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="4">
+      <c r="D214" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="4">
+      <c r="I214" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6402,10 +6450,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="4" t="s">
+      <c r="J217" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6449,28 +6497,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="4">
+      <c r="A219" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="4">
+      <c r="C219" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="4">
+      <c r="G219" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="4">
+      <c r="H219" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6495,28 +6543,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="4">
+      <c r="C221" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="4">
+      <c r="D221" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="4">
+      <c r="I221" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6575,10 +6623,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="4" t="s">
+      <c r="J223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6622,28 +6670,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="4">
+      <c r="A225" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="4">
+      <c r="C225" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6668,28 +6716,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="4">
+      <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="4">
+      <c r="D227" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="4">
+      <c r="I227" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6748,10 +6796,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="4" t="s">
+      <c r="J229" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6795,28 +6843,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="4">
+      <c r="A231" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="4">
+      <c r="B231" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="4">
+      <c r="C231" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="4">
+      <c r="E231" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="4">
+      <c r="F231" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="4">
+      <c r="G231" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="4">
+      <c r="H231" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6841,28 +6889,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="4">
+      <c r="C233" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="4">
+      <c r="D233" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="4">
+      <c r="G233" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="4">
+      <c r="H233" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="4">
+      <c r="I233" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6921,10 +6969,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="4" t="s">
+      <c r="J235" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6968,28 +7016,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="4">
+      <c r="A237" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="4">
+      <c r="C237" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7014,28 +7062,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="4">
+      <c r="B239" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="4">
+      <c r="C239" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="4">
+      <c r="D239" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="4">
+      <c r="G239" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="4">
+      <c r="H239" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="4">
+      <c r="I239" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7094,10 +7142,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="4" t="s">
+      <c r="J241" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7141,28 +7189,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="4">
+      <c r="A243" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="4">
+      <c r="B243" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="4">
+      <c r="C243" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="4">
+      <c r="E243" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="4">
+      <c r="F243" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="4">
+      <c r="G243" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="4">
+      <c r="H243" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7187,28 +7235,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="4">
+      <c r="B245" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="4">
+      <c r="C245" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="4">
+      <c r="D245" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="4">
+      <c r="E245" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="4">
+      <c r="F245" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="4">
+      <c r="G245" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="4">
+      <c r="H245" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="4">
+      <c r="I245" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7267,10 +7315,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="4" t="s">
+      <c r="J247" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7314,28 +7362,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="4">
+      <c r="A249" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="4">
+      <c r="B249" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="4">
+      <c r="C249" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="4">
+      <c r="E249" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="4">
+      <c r="F249" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="4">
+      <c r="G249" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="4">
+      <c r="H249" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7360,28 +7408,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="4">
+      <c r="B251" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="4">
+      <c r="C251" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="4">
+      <c r="D251" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="4">
+      <c r="E251" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="4">
+      <c r="F251" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="4">
+      <c r="G251" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="4">
+      <c r="H251" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="4">
+      <c r="I251" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7469,10 +7517,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="4" t="s">
+      <c r="J254" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7516,28 +7564,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="4">
+      <c r="A256" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="4">
+      <c r="B256" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="4">
+      <c r="C256" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="4">
+      <c r="E256" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="4">
+      <c r="F256" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="4">
+      <c r="G256" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="4">
+      <c r="H256" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7562,28 +7610,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="4">
+      <c r="C258" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="4">
+      <c r="D258" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="4">
+      <c r="G258" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="4">
+      <c r="H258" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="4">
+      <c r="I258" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7642,10 +7690,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="J260" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7689,28 +7737,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="4">
+      <c r="A262" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="4">
+      <c r="C262" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7735,28 +7783,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="C264" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="4">
+      <c r="D264" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="4">
+      <c r="I264" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7815,10 +7863,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="4" t="s">
+      <c r="J266" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7862,28 +7910,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="4">
+      <c r="A268" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="4">
+      <c r="B268" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="4">
+      <c r="C268" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="4">
+      <c r="G268" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="4">
+      <c r="H268" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7908,28 +7956,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="4">
+      <c r="C270" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="4">
+      <c r="D270" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="4">
+      <c r="I270" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7988,10 +8036,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="4" t="s">
+      <c r="J272" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8035,28 +8083,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="4">
+      <c r="A274" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="4">
+      <c r="C274" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="4">
+      <c r="E274" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="4">
+      <c r="F274" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="4">
+      <c r="G274" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="4">
+      <c r="H274" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8081,28 +8129,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="4">
+      <c r="C276" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="4">
+      <c r="D276" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="4">
+      <c r="I276" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8161,10 +8209,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="4" t="s">
+      <c r="J278" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8208,28 +8256,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="4">
+      <c r="A280" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="4">
+      <c r="B280" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="4">
+      <c r="C280" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="4">
+      <c r="E280" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="4">
+      <c r="F280" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="4">
+      <c r="G280" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="4">
+      <c r="H280" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8254,28 +8302,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="4">
+      <c r="C282" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="4">
+      <c r="D282" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="4">
+      <c r="I282" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8334,10 +8382,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="4" t="s">
+      <c r="J284" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8381,28 +8429,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="4">
+      <c r="A286" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="4">
+      <c r="B286" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="4">
+      <c r="C286" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="4">
+      <c r="E286" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="4">
+      <c r="F286" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="4">
+      <c r="G286" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="4">
+      <c r="H286" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8427,28 +8475,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="4">
+      <c r="B288" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="4">
+      <c r="C288" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="4">
+      <c r="D288" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="4">
+      <c r="E288" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="4">
+      <c r="F288" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="4">
+      <c r="G288" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="4">
+      <c r="H288" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="4">
+      <c r="I288" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8507,10 +8555,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="4" t="s">
+      <c r="J290" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8554,28 +8602,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="4">
+      <c r="A292" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="4">
+      <c r="B292" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="4">
+      <c r="C292" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="4">
+      <c r="E292" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="4">
+      <c r="F292" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="4">
+      <c r="G292" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="4">
+      <c r="H292" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8600,28 +8648,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="4">
+      <c r="B294" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="4">
+      <c r="C294" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="4">
+      <c r="D294" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="4">
+      <c r="E294" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="4">
+      <c r="F294" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="4">
+      <c r="G294" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="4">
+      <c r="H294" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="4">
+      <c r="I294" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8680,10 +8728,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="4" t="s">
+      <c r="J296" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8727,28 +8775,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="4">
+      <c r="A298" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="4">
+      <c r="B298" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="4">
+      <c r="C298" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="4">
+      <c r="E298" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="4">
+      <c r="F298" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="4">
+      <c r="G298" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="4">
+      <c r="H298" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8773,28 +8821,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="4">
+      <c r="B300" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="4">
+      <c r="C300" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="4">
+      <c r="D300" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="4">
+      <c r="E300" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="4">
+      <c r="F300" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="4">
+      <c r="G300" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="4">
+      <c r="H300" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="4">
+      <c r="I300" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8853,10 +8901,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="4" t="s">
+      <c r="J302" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8900,28 +8948,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="4">
+      <c r="A304" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="4">
+      <c r="B304" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="4">
+      <c r="C304" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="4">
+      <c r="E304" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="4">
+      <c r="F304" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="4">
+      <c r="G304" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="4">
+      <c r="H304" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8946,28 +8994,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="4">
+      <c r="C306" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="4">
+      <c r="D306" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="4">
+      <c r="E306" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="4">
+      <c r="F306" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="4">
+      <c r="G306" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="4">
+      <c r="H306" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="4">
+      <c r="I306" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9026,10 +9074,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="4" t="s">
+      <c r="J308" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9073,28 +9121,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="4">
+      <c r="A310" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="4">
+      <c r="B310" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="4">
+      <c r="C310" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="4">
+      <c r="E310" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="4">
+      <c r="F310" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="4">
+      <c r="G310" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="4">
+      <c r="H310" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9119,28 +9167,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="4">
+      <c r="B312" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="4">
+      <c r="C312" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="4">
+      <c r="D312" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="4">
+      <c r="E312" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="4">
+      <c r="F312" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="4">
+      <c r="G312" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="4">
+      <c r="H312" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="4">
+      <c r="I312" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9199,10 +9247,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="4" t="s">
+      <c r="J314" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9246,28 +9294,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="4">
+      <c r="A316" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="4">
+      <c r="B316" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="4">
+      <c r="C316" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="4">
+      <c r="E316" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="4">
+      <c r="F316" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="4">
+      <c r="G316" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="4">
+      <c r="H316" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9292,28 +9340,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="4">
+      <c r="B318" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="4">
+      <c r="C318" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="4">
+      <c r="D318" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="4">
+      <c r="E318" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="4">
+      <c r="F318" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="4">
+      <c r="G318" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="4">
+      <c r="H318" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="4">
+      <c r="I318" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9372,10 +9420,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="4" t="s">
+      <c r="J320" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9419,28 +9467,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="4">
+      <c r="A322" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="4">
+      <c r="B322" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="4">
+      <c r="C322" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="4">
+      <c r="E322" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="4">
+      <c r="F322" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="4">
+      <c r="G322" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="4">
+      <c r="H322" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9465,28 +9513,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="4">
+      <c r="B324" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="4">
+      <c r="C324" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="4">
+      <c r="D324" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="4">
+      <c r="E324" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="4">
+      <c r="F324" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="4">
+      <c r="G324" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="4">
+      <c r="H324" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="4">
+      <c r="I324" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9545,10 +9593,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="4" t="s">
+      <c r="J326" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9592,28 +9640,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="4">
+      <c r="A328" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="4">
+      <c r="B328" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="4">
+      <c r="C328" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="4">
+      <c r="E328" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="4">
+      <c r="F328" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="4">
+      <c r="G328" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="4">
+      <c r="H328" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9638,28 +9686,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="4">
+      <c r="B330" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="4">
+      <c r="C330" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="4">
+      <c r="D330" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="4">
+      <c r="E330" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="4">
+      <c r="F330" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="4">
+      <c r="G330" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="4">
+      <c r="H330" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="4">
+      <c r="I330" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9718,10 +9766,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="4" t="s">
+      <c r="J332" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9765,28 +9813,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="4">
+      <c r="A334" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="4">
+      <c r="B334" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="4">
+      <c r="C334" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="4">
+      <c r="E334" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="4">
+      <c r="F334" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="4">
+      <c r="G334" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="4">
+      <c r="H334" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9811,28 +9859,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="4">
+      <c r="B336" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="4">
+      <c r="C336" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="4">
+      <c r="D336" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="4">
+      <c r="E336" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="4">
+      <c r="F336" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="4">
+      <c r="G336" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="4">
+      <c r="H336" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="4">
+      <c r="I336" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9891,10 +9939,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="4" t="s">
+      <c r="J338" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9938,28 +9986,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="4">
+      <c r="A340" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="4">
+      <c r="B340" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="4">
+      <c r="C340" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="4">
+      <c r="E340" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="4">
+      <c r="F340" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="4">
+      <c r="G340" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="4">
+      <c r="H340" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9984,28 +10032,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="4">
+      <c r="B342" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="4">
+      <c r="C342" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="4">
+      <c r="D342" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="4">
+      <c r="E342" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="4">
+      <c r="F342" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="4">
+      <c r="G342" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="4">
+      <c r="H342" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="4">
+      <c r="I342" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10064,10 +10112,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="4" t="s">
+      <c r="J344" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10111,28 +10159,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="4">
+      <c r="A346" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="4">
+      <c r="B346" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="4">
+      <c r="C346" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="4">
+      <c r="E346" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="4">
+      <c r="F346" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="4">
+      <c r="G346" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="4">
+      <c r="H346" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10157,28 +10205,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="4">
+      <c r="B348" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="4">
+      <c r="C348" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="4">
+      <c r="D348" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="4">
+      <c r="E348" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="4">
+      <c r="F348" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="4">
+      <c r="G348" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="4">
+      <c r="H348" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="4">
+      <c r="I348" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10266,10 +10314,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="4" t="s">
+      <c r="J351" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10313,28 +10361,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="4">
+      <c r="A353" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="4">
+      <c r="B353" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="4">
+      <c r="C353" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="4">
+      <c r="E353" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="4">
+      <c r="F353" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="4">
+      <c r="G353" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="4">
+      <c r="H353" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10359,28 +10407,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="4">
+      <c r="B355" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="4">
+      <c r="C355" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="4">
+      <c r="D355" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="4">
+      <c r="E355" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="4">
+      <c r="F355" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="4">
+      <c r="G355" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="4">
+      <c r="H355" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="4">
+      <c r="I355" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10439,10 +10487,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="4" t="s">
+      <c r="J357" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10486,28 +10534,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="4">
+      <c r="A359" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="4">
+      <c r="B359" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="4">
+      <c r="C359" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="4">
+      <c r="E359" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="4">
+      <c r="F359" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="4">
+      <c r="G359" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="4">
+      <c r="H359" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10532,28 +10580,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="4">
+      <c r="B361" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="4">
+      <c r="C361" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="4">
+      <c r="D361" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="4">
+      <c r="E361" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="4">
+      <c r="F361" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="4">
+      <c r="G361" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="4">
+      <c r="H361" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="4">
+      <c r="I361" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10612,10 +10660,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="4" t="s">
+      <c r="J363" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10659,28 +10707,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="4">
+      <c r="A365" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="4">
+      <c r="B365" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="4">
+      <c r="C365" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="4">
+      <c r="E365" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="4">
+      <c r="F365" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="4">
+      <c r="G365" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="4">
+      <c r="H365" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10705,28 +10753,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="4">
+      <c r="B367" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="4">
+      <c r="C367" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="4">
+      <c r="D367" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="4">
+      <c r="E367" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="4">
+      <c r="F367" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="4">
+      <c r="G367" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="4">
+      <c r="H367" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="4">
+      <c r="I367" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10785,10 +10833,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="4" t="s">
+      <c r="J369" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10832,28 +10880,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="4">
+      <c r="A371" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="4">
+      <c r="B371" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="4">
+      <c r="C371" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="4">
+      <c r="E371" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="4">
+      <c r="F371" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="4">
+      <c r="G371" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="4">
+      <c r="H371" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10878,28 +10926,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="4">
+      <c r="B373" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="4">
+      <c r="C373" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="4">
+      <c r="D373" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="4">
+      <c r="E373" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="4">
+      <c r="F373" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="4">
+      <c r="G373" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="4">
+      <c r="H373" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="4">
+      <c r="I373" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10958,10 +11006,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="4" t="s">
+      <c r="J375" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -11005,28 +11053,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="4">
+      <c r="A377" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="4">
+      <c r="B377" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="4">
+      <c r="C377" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="4">
+      <c r="E377" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="4">
+      <c r="F377" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="4">
+      <c r="G377" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="4">
+      <c r="H377" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11051,28 +11099,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="4">
+      <c r="B379" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="4">
+      <c r="C379" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="4">
+      <c r="D379" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="4">
+      <c r="E379" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="4">
+      <c r="F379" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="4">
+      <c r="G379" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="4">
+      <c r="H379" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="4">
+      <c r="I379" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11131,10 +11179,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="4" t="s">
+      <c r="J381" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11178,28 +11226,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="4">
+      <c r="A383" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="4">
+      <c r="B383" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="4">
+      <c r="C383" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="4">
+      <c r="E383" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="4">
+      <c r="F383" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="4">
+      <c r="G383" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="4">
+      <c r="H383" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11224,28 +11272,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="4">
+      <c r="B385" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="4">
+      <c r="C385" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="4">
+      <c r="D385" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="4">
+      <c r="E385" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="4">
+      <c r="F385" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="4">
+      <c r="G385" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="4">
+      <c r="H385" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="4">
+      <c r="I385" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11304,10 +11352,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="4" t="s">
+      <c r="J387" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11351,28 +11399,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="4">
+      <c r="A389" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="4">
+      <c r="B389" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="4">
+      <c r="C389" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="4">
+      <c r="E389" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="4">
+      <c r="F389" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="4">
+      <c r="G389" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="4">
+      <c r="H389" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11397,28 +11445,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="4">
+      <c r="B391" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="4">
+      <c r="C391" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="4">
+      <c r="D391" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="4">
+      <c r="E391" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="4">
+      <c r="F391" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="4">
+      <c r="G391" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="4">
+      <c r="H391" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="4">
+      <c r="I391" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11477,10 +11525,10 @@
       <c r="I393">
         <f>((C393-C392)^2+(D393- D392)^2)^.5</f>
       </c>
-      <c r="J393" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K393" s="4" t="s">
+      <c r="J393" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K393" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L393" t="n">
@@ -11524,28 +11572,28 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="s" s="4">
+      <c r="A395" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B395" t="s" s="4">
+      <c r="B395" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C395" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D395" t="s" s="4">
+      <c r="C395" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D395" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E395" t="s" s="4">
+      <c r="E395" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F395" t="s" s="4">
+      <c r="F395" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G395" t="s" s="4">
+      <c r="G395" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H395" t="s" s="4">
+      <c r="H395" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11570,28 +11618,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="B397" t="s" s="4">
+      <c r="B397" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C397" t="s" s="4">
+      <c r="C397" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D397" t="s" s="4">
+      <c r="D397" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E397" t="s" s="4">
+      <c r="E397" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F397" t="s" s="4">
+      <c r="F397" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G397" t="s" s="4">
+      <c r="G397" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H397" t="s" s="4">
+      <c r="H397" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I397" t="s" s="4">
+      <c r="I397" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11650,10 +11698,10 @@
       <c r="I399">
         <f>((C399-C398)^2+(D399- D398)^2)^.5</f>
       </c>
-      <c r="J399" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K399" s="4" t="s">
+      <c r="J399" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K399" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L399" t="n">
@@ -11697,28 +11745,28 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="s" s="4">
+      <c r="A401" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B401" t="s" s="4">
+      <c r="B401" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C401" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D401" t="s" s="4">
+      <c r="C401" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D401" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E401" t="s" s="4">
+      <c r="E401" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F401" t="s" s="4">
+      <c r="F401" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G401" t="s" s="4">
+      <c r="G401" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H401" t="s" s="4">
+      <c r="H401" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11743,28 +11791,28 @@
       </c>
     </row>
     <row r="403">
-      <c r="B403" t="s" s="4">
+      <c r="B403" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C403" t="s" s="4">
+      <c r="C403" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D403" t="s" s="4">
+      <c r="D403" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E403" t="s" s="4">
+      <c r="E403" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F403" t="s" s="4">
+      <c r="F403" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G403" t="s" s="4">
+      <c r="G403" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H403" t="s" s="4">
+      <c r="H403" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I403" t="s" s="4">
+      <c r="I403" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11823,10 +11871,10 @@
       <c r="I405">
         <f>((C405-C404)^2+(D405- D404)^2)^.5</f>
       </c>
-      <c r="J405" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K405" s="4" t="s">
+      <c r="J405" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K405" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L405" t="n">
@@ -11870,28 +11918,28 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="s" s="4">
+      <c r="A407" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B407" t="s" s="4">
+      <c r="B407" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C407" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D407" t="s" s="4">
+      <c r="C407" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D407" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E407" t="s" s="4">
+      <c r="E407" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F407" t="s" s="4">
+      <c r="F407" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G407" t="s" s="4">
+      <c r="G407" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H407" t="s" s="4">
+      <c r="H407" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11916,28 +11964,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="B409" t="s" s="4">
+      <c r="B409" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C409" t="s" s="4">
+      <c r="C409" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D409" t="s" s="4">
+      <c r="D409" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E409" t="s" s="4">
+      <c r="E409" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F409" t="s" s="4">
+      <c r="F409" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G409" t="s" s="4">
+      <c r="G409" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H409" t="s" s="4">
+      <c r="H409" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I409" t="s" s="4">
+      <c r="I409" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11996,10 +12044,10 @@
       <c r="I411">
         <f>((C411-C410)^2+(D411- D410)^2)^.5</f>
       </c>
-      <c r="J411" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K411" s="4" t="s">
+      <c r="J411" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K411" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L411" t="n">
@@ -12043,28 +12091,28 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="s" s="4">
+      <c r="A413" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B413" t="s" s="4">
+      <c r="B413" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C413" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D413" t="s" s="4">
+      <c r="C413" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D413" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E413" t="s" s="4">
+      <c r="E413" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F413" t="s" s="4">
+      <c r="F413" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G413" t="s" s="4">
+      <c r="G413" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H413" t="s" s="4">
+      <c r="H413" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12089,28 +12137,28 @@
       </c>
     </row>
     <row r="415">
-      <c r="B415" t="s" s="4">
+      <c r="B415" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C415" t="s" s="4">
+      <c r="C415" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D415" t="s" s="4">
+      <c r="D415" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E415" t="s" s="4">
+      <c r="E415" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F415" t="s" s="4">
+      <c r="F415" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G415" t="s" s="4">
+      <c r="G415" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H415" t="s" s="4">
+      <c r="H415" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I415" t="s" s="4">
+      <c r="I415" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12169,10 +12217,10 @@
       <c r="I417">
         <f>((C417-C416)^2+(D417- D416)^2)^.5</f>
       </c>
-      <c r="J417" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K417" s="4" t="s">
+      <c r="J417" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K417" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L417" t="n">
@@ -12216,28 +12264,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="s" s="4">
+      <c r="A419" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B419" t="s" s="4">
+      <c r="B419" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C419" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D419" t="s" s="4">
+      <c r="C419" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D419" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E419" t="s" s="4">
+      <c r="E419" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F419" t="s" s="4">
+      <c r="F419" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G419" t="s" s="4">
+      <c r="G419" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H419" t="s" s="4">
+      <c r="H419" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12262,28 +12310,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="B421" t="s" s="4">
+      <c r="B421" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C421" t="s" s="4">
+      <c r="C421" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D421" t="s" s="4">
+      <c r="D421" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E421" t="s" s="4">
+      <c r="E421" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F421" t="s" s="4">
+      <c r="F421" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G421" t="s" s="4">
+      <c r="G421" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H421" t="s" s="4">
+      <c r="H421" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I421" t="s" s="4">
+      <c r="I421" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12342,10 +12390,10 @@
       <c r="I423">
         <f>((C423-C422)^2+(D423- D422)^2)^.5</f>
       </c>
-      <c r="J423" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K423" s="4" t="s">
+      <c r="J423" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K423" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L423" t="n">
@@ -12389,28 +12437,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="s" s="4">
+      <c r="A425" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B425" t="s" s="4">
+      <c r="B425" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C425" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D425" t="s" s="4">
+      <c r="C425" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D425" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E425" t="s" s="4">
+      <c r="E425" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F425" t="s" s="4">
+      <c r="F425" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G425" t="s" s="4">
+      <c r="G425" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H425" t="s" s="4">
+      <c r="H425" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12435,28 +12483,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="B427" t="s" s="4">
+      <c r="B427" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C427" t="s" s="4">
+      <c r="C427" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D427" t="s" s="4">
+      <c r="D427" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E427" t="s" s="4">
+      <c r="E427" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F427" t="s" s="4">
+      <c r="F427" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G427" t="s" s="4">
+      <c r="G427" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H427" t="s" s="4">
+      <c r="H427" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I427" t="s" s="4">
+      <c r="I427" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12602,10 +12650,10 @@
       <c r="I432">
         <f>((C432-C431)^2+(D432- D431)^2)^.5</f>
       </c>
-      <c r="J432" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K432" s="4" t="s">
+      <c r="J432" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K432" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L432" t="n">
@@ -12649,28 +12697,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="s" s="4">
+      <c r="A434" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B434" t="s" s="4">
+      <c r="B434" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C434" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D434" t="s" s="4">
+      <c r="C434" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D434" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E434" t="s" s="4">
+      <c r="E434" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F434" t="s" s="4">
+      <c r="F434" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G434" t="s" s="4">
+      <c r="G434" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H434" t="s" s="4">
+      <c r="H434" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12695,28 +12743,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="B436" t="s" s="4">
+      <c r="B436" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C436" t="s" s="4">
+      <c r="C436" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D436" t="s" s="4">
+      <c r="D436" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E436" t="s" s="4">
+      <c r="E436" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F436" t="s" s="4">
+      <c r="F436" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G436" t="s" s="4">
+      <c r="G436" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H436" t="s" s="4">
+      <c r="H436" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I436" t="s" s="4">
+      <c r="I436" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12775,10 +12823,10 @@
       <c r="I438">
         <f>((C438-C437)^2+(D438- D437)^2)^.5</f>
       </c>
-      <c r="J438" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K438" s="4" t="s">
+      <c r="J438" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K438" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L438" t="n">
@@ -12822,28 +12870,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="s" s="4">
+      <c r="A440" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B440" t="s" s="4">
+      <c r="B440" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C440" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D440" t="s" s="4">
+      <c r="C440" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D440" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E440" t="s" s="4">
+      <c r="E440" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F440" t="s" s="4">
+      <c r="F440" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G440" t="s" s="4">
+      <c r="G440" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H440" t="s" s="4">
+      <c r="H440" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12868,28 +12916,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="B442" t="s" s="4">
+      <c r="B442" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C442" t="s" s="4">
+      <c r="C442" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D442" t="s" s="4">
+      <c r="D442" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E442" t="s" s="4">
+      <c r="E442" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F442" t="s" s="4">
+      <c r="F442" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G442" t="s" s="4">
+      <c r="G442" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H442" t="s" s="4">
+      <c r="H442" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I442" t="s" s="4">
+      <c r="I442" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12948,10 +12996,10 @@
       <c r="I444">
         <f>((C444-C443)^2+(D444- D443)^2)^.5</f>
       </c>
-      <c r="J444" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K444" s="4" t="s">
+      <c r="J444" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K444" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L444" t="n">
@@ -12995,28 +13043,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="s" s="4">
+      <c r="A446" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B446" t="s" s="4">
+      <c r="B446" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C446" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D446" t="s" s="4">
+      <c r="C446" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D446" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E446" t="s" s="4">
+      <c r="E446" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F446" t="s" s="4">
+      <c r="F446" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G446" t="s" s="4">
+      <c r="G446" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H446" t="s" s="4">
+      <c r="H446" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13041,28 +13089,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="B448" t="s" s="4">
+      <c r="B448" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C448" t="s" s="4">
+      <c r="C448" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D448" t="s" s="4">
+      <c r="D448" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E448" t="s" s="4">
+      <c r="E448" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F448" t="s" s="4">
+      <c r="F448" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G448" t="s" s="4">
+      <c r="G448" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H448" t="s" s="4">
+      <c r="H448" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I448" t="s" s="4">
+      <c r="I448" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13121,10 +13169,10 @@
       <c r="I450">
         <f>((C450-C449)^2+(D450- D449)^2)^.5</f>
       </c>
-      <c r="J450" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K450" s="4" t="s">
+      <c r="J450" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K450" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L450" t="n">
@@ -13168,28 +13216,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="s" s="4">
+      <c r="A452" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B452" t="s" s="4">
+      <c r="B452" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C452" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D452" t="s" s="4">
+      <c r="C452" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D452" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E452" t="s" s="4">
+      <c r="E452" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F452" t="s" s="4">
+      <c r="F452" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G452" t="s" s="4">
+      <c r="G452" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H452" t="s" s="4">
+      <c r="H452" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13214,28 +13262,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="B454" t="s" s="4">
+      <c r="B454" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C454" t="s" s="4">
+      <c r="C454" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D454" t="s" s="4">
+      <c r="D454" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E454" t="s" s="4">
+      <c r="E454" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F454" t="s" s="4">
+      <c r="F454" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G454" t="s" s="4">
+      <c r="G454" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H454" t="s" s="4">
+      <c r="H454" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I454" t="s" s="4">
+      <c r="I454" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13294,10 +13342,10 @@
       <c r="I456">
         <f>((C456-C455)^2+(D456- D455)^2)^.5</f>
       </c>
-      <c r="J456" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K456" s="4" t="s">
+      <c r="J456" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K456" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L456" t="n">
@@ -13341,28 +13389,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="s" s="4">
+      <c r="A458" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B458" t="s" s="4">
+      <c r="B458" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C458" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D458" t="s" s="4">
+      <c r="C458" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D458" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E458" t="s" s="4">
+      <c r="E458" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F458" t="s" s="4">
+      <c r="F458" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G458" t="s" s="4">
+      <c r="G458" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H458" t="s" s="4">
+      <c r="H458" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13387,28 +13435,28 @@
       </c>
     </row>
     <row r="460">
-      <c r="B460" t="s" s="4">
+      <c r="B460" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C460" t="s" s="4">
+      <c r="C460" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D460" t="s" s="4">
+      <c r="D460" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E460" t="s" s="4">
+      <c r="E460" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F460" t="s" s="4">
+      <c r="F460" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G460" t="s" s="4">
+      <c r="G460" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H460" t="s" s="4">
+      <c r="H460" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I460" t="s" s="4">
+      <c r="I460" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13467,10 +13515,10 @@
       <c r="I462">
         <f>((C462-C461)^2+(D462- D461)^2)^.5</f>
       </c>
-      <c r="J462" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K462" s="4" t="s">
+      <c r="J462" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K462" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L462" t="n">
@@ -13514,28 +13562,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="s" s="4">
+      <c r="A464" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B464" t="s" s="4">
+      <c r="B464" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C464" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D464" t="s" s="4">
+      <c r="C464" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D464" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E464" t="s" s="4">
+      <c r="E464" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F464" t="s" s="4">
+      <c r="F464" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G464" t="s" s="4">
+      <c r="G464" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H464" t="s" s="4">
+      <c r="H464" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13560,28 +13608,28 @@
       </c>
     </row>
     <row r="466">
-      <c r="B466" t="s" s="4">
+      <c r="B466" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C466" t="s" s="4">
+      <c r="C466" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D466" t="s" s="4">
+      <c r="D466" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E466" t="s" s="4">
+      <c r="E466" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F466" t="s" s="4">
+      <c r="F466" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G466" t="s" s="4">
+      <c r="G466" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H466" t="s" s="4">
+      <c r="H466" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I466" t="s" s="4">
+      <c r="I466" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13640,10 +13688,10 @@
       <c r="I468">
         <f>((C468-C467)^2+(D468- D467)^2)^.5</f>
       </c>
-      <c r="J468" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K468" s="4" t="s">
+      <c r="J468" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K468" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L468" t="n">
@@ -13687,28 +13735,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="s" s="4">
+      <c r="A470" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B470" t="s" s="4">
+      <c r="B470" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C470" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D470" t="s" s="4">
+      <c r="C470" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E470" t="s" s="4">
+      <c r="E470" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F470" t="s" s="4">
+      <c r="F470" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G470" t="s" s="4">
+      <c r="G470" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H470" t="s" s="4">
+      <c r="H470" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13733,28 +13781,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="B472" t="s" s="4">
+      <c r="B472" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C472" t="s" s="4">
+      <c r="C472" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D472" t="s" s="4">
+      <c r="D472" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E472" t="s" s="4">
+      <c r="E472" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F472" t="s" s="4">
+      <c r="F472" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G472" t="s" s="4">
+      <c r="G472" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H472" t="s" s="4">
+      <c r="H472" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I472" t="s" s="4">
+      <c r="I472" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13813,10 +13861,10 @@
       <c r="I474">
         <f>((C474-C473)^2+(D474- D473)^2)^.5</f>
       </c>
-      <c r="J474" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K474" s="4" t="s">
+      <c r="J474" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K474" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L474" t="n">
@@ -13860,28 +13908,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="s" s="4">
+      <c r="A476" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B476" t="s" s="4">
+      <c r="B476" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C476" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D476" t="s" s="4">
+      <c r="C476" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D476" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E476" t="s" s="4">
+      <c r="E476" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F476" t="s" s="4">
+      <c r="F476" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G476" t="s" s="4">
+      <c r="G476" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H476" t="s" s="4">
+      <c r="H476" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13906,28 +13954,28 @@
       </c>
     </row>
     <row r="478">
-      <c r="B478" t="s" s="4">
+      <c r="B478" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C478" t="s" s="4">
+      <c r="C478" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D478" t="s" s="4">
+      <c r="D478" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E478" t="s" s="4">
+      <c r="E478" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F478" t="s" s="4">
+      <c r="F478" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G478" t="s" s="4">
+      <c r="G478" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H478" t="s" s="4">
+      <c r="H478" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I478" t="s" s="4">
+      <c r="I478" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13986,10 +14034,10 @@
       <c r="I480">
         <f>((C480-C479)^2+(D480- D479)^2)^.5</f>
       </c>
-      <c r="J480" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K480" s="4" t="s">
+      <c r="J480" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K480" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L480" t="n">
@@ -14033,28 +14081,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="s" s="4">
+      <c r="A482" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B482" t="s" s="4">
+      <c r="B482" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C482" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D482" t="s" s="4">
+      <c r="C482" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E482" t="s" s="4">
+      <c r="E482" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F482" t="s" s="4">
+      <c r="F482" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G482" t="s" s="4">
+      <c r="G482" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H482" t="s" s="4">
+      <c r="H482" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14079,28 +14127,28 @@
       </c>
     </row>
     <row r="484">
-      <c r="B484" t="s" s="4">
+      <c r="B484" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C484" t="s" s="4">
+      <c r="C484" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D484" t="s" s="4">
+      <c r="D484" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E484" t="s" s="4">
+      <c r="E484" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F484" t="s" s="4">
+      <c r="F484" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G484" t="s" s="4">
+      <c r="G484" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H484" t="s" s="4">
+      <c r="H484" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I484" t="s" s="4">
+      <c r="I484" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14159,10 +14207,10 @@
       <c r="I486">
         <f>((C486-C485)^2+(D486- D485)^2)^.5</f>
       </c>
-      <c r="J486" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K486" s="4" t="s">
+      <c r="J486" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K486" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L486" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16824" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21030" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -392,10 +410,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -439,28 +457,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="12">
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -485,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -565,10 +583,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="J13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -612,28 +630,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="12">
+      <c r="A15" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="12">
+      <c r="B15" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="12">
+      <c r="C15" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="12">
+      <c r="E15" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="12">
+      <c r="F15" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="12">
+      <c r="G15" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="12">
+      <c r="H15" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -658,28 +676,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="D17" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="F17" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="12">
+      <c r="I17" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -738,10 +756,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="J19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -785,28 +803,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="12">
+      <c r="A21" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="12">
+      <c r="C21" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -831,28 +849,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="12">
+      <c r="B23" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="12">
+      <c r="C23" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D23" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="12">
+      <c r="F23" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="12">
+      <c r="G23" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="12">
+      <c r="H23" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="12">
+      <c r="I23" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -940,10 +958,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="12" t="s">
+      <c r="J26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -987,28 +1005,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="12">
+      <c r="A28" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="12">
+      <c r="C28" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1033,28 +1051,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="12">
+      <c r="C30" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="12">
+      <c r="D30" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="12">
+      <c r="I30" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1113,10 +1131,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="12" t="s">
+      <c r="J32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1160,28 +1178,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="12">
+      <c r="A34" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="12">
+      <c r="C34" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1206,28 +1224,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C36" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="12">
+      <c r="I36" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1304,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="12" t="s">
+      <c r="J38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1333,28 +1351,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="12">
+      <c r="A40" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="12">
+      <c r="C40" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1397,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="12">
+      <c r="I42" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1477,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="12" t="s">
+      <c r="J44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1506,28 +1524,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="12">
+      <c r="A46" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="12">
+      <c r="C46" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1570,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="12">
+      <c r="C48" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="12">
+      <c r="D48" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="12">
+      <c r="I48" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1679,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="12" t="s">
+      <c r="J51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1708,28 +1726,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="12">
+      <c r="A53" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="12">
+      <c r="B53" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="12">
+      <c r="C53" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="12">
+      <c r="E53" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="12">
+      <c r="F53" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="12">
+      <c r="G53" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="12">
+      <c r="H53" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1772,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="12">
+      <c r="C55" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="12">
+      <c r="D55" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="12">
+      <c r="F55" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="12">
+      <c r="G55" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="12">
+      <c r="I55" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1834,10 +1852,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="12" t="s">
+      <c r="J57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1881,28 +1899,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="12">
+      <c r="A59" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="12">
+      <c r="B59" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="12">
+      <c r="C59" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="12">
+      <c r="E59" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="12">
+      <c r="F59" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="12">
+      <c r="G59" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="12">
+      <c r="H59" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1927,28 +1945,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="12">
+      <c r="I61" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2007,10 +2025,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="12" t="s">
+      <c r="J63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2054,28 +2072,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="12">
+      <c r="A65" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="12">
+      <c r="B65" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="12">
+      <c r="C65" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="12">
+      <c r="E65" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="12">
+      <c r="F65" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="12">
+      <c r="G65" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="12">
+      <c r="H65" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2100,28 +2118,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="12">
+      <c r="B67" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="12">
+      <c r="C67" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="12">
+      <c r="D67" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="12">
+      <c r="F67" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="12">
+      <c r="G67" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="12">
+      <c r="I67" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2180,10 +2198,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="12" t="s">
+      <c r="J69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2227,28 +2245,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="12">
+      <c r="A71" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="12">
+      <c r="C71" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2273,28 +2291,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="12">
+      <c r="I73" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2371,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="12" t="s">
+      <c r="J75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2400,28 +2418,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="12">
+      <c r="A77" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="12">
+      <c r="C77" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2464,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="12">
+      <c r="C79" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="12">
+      <c r="D79" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="12">
+      <c r="F79" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="12">
+      <c r="G79" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="12">
+      <c r="I79" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2526,10 +2544,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="12" t="s">
+      <c r="J81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2573,28 +2591,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="12">
+      <c r="A83" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="12">
+      <c r="C83" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2619,28 +2637,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="12">
+      <c r="B85" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="12">
+      <c r="C85" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="12">
+      <c r="D85" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="12">
+      <c r="E85" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="12">
+      <c r="F85" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="12">
+      <c r="G85" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="12">
+      <c r="H85" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="12">
+      <c r="I85" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2699,10 +2717,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="12" t="s">
+      <c r="J87" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2746,28 +2764,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="12">
+      <c r="A89" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="12">
+      <c r="C89" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2792,28 +2810,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="12">
+      <c r="I91" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2872,10 +2890,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="12" t="s">
+      <c r="J93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2919,28 +2937,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="12">
+      <c r="A95" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="12">
+      <c r="C95" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2965,28 +2983,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="12">
+      <c r="C97" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="D97" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="12">
+      <c r="I97" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3045,10 +3063,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="12" t="s">
+      <c r="J99" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3092,28 +3110,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="12">
+      <c r="A101" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="12">
+      <c r="B101" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="12">
+      <c r="C101" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="12">
+      <c r="E101" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="12">
+      <c r="F101" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="12">
+      <c r="G101" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="12">
+      <c r="H101" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3138,28 +3156,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="12">
+      <c r="C103" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="12">
+      <c r="D103" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="12">
+      <c r="I103" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3218,10 +3236,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="12" t="s">
+      <c r="J105" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3265,28 +3283,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="12">
+      <c r="A107" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="12">
+      <c r="C107" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3311,28 +3329,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="12">
+      <c r="C109" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="12">
+      <c r="D109" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="12">
+      <c r="I109" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3391,10 +3409,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="12" t="s">
+      <c r="J111" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3438,28 +3456,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="12">
+      <c r="A113" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="12">
+      <c r="C113" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3484,28 +3502,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="12">
+      <c r="C115" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="12">
+      <c r="D115" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="12">
+      <c r="I115" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3564,10 +3582,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="12" t="s">
+      <c r="J117" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3611,28 +3629,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="12">
+      <c r="A119" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="12">
+      <c r="C119" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3657,28 +3675,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="12">
+      <c r="C121" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="12">
+      <c r="D121" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="12">
+      <c r="I121" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3766,10 +3784,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="12" t="s">
+      <c r="J124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3813,28 +3831,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="12">
+      <c r="A126" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="12">
+      <c r="C126" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3859,28 +3877,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="12">
+      <c r="C128" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="12">
+      <c r="D128" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="12">
+      <c r="I128" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3939,10 +3957,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="12" t="s">
+      <c r="J130" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3986,28 +4004,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="A132" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="12">
+      <c r="C132" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4032,28 +4050,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="12">
+      <c r="I134" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4112,10 +4130,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="12" t="s">
+      <c r="J136" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4159,28 +4177,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="12">
+      <c r="A138" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="12">
+      <c r="C138" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4205,28 +4223,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="12">
+      <c r="I140" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4575,10 +4593,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="12" t="s">
+      <c r="J152" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4622,28 +4640,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="12">
+      <c r="A154" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="12">
+      <c r="C154" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4668,28 +4686,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="12">
+      <c r="C156" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="12">
+      <c r="D156" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="12">
+      <c r="I156" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4748,10 +4766,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="12" t="s">
+      <c r="J158" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4795,28 +4813,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="12">
+      <c r="A160" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="12">
+      <c r="C160" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4841,28 +4859,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="12">
+      <c r="C162" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="12">
+      <c r="D162" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="12">
+      <c r="I162" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4921,10 +4939,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="12" t="s">
+      <c r="J164" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4968,28 +4986,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="12">
+      <c r="A166" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="12">
+      <c r="C166" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5014,28 +5032,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="12">
+      <c r="C168" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="12">
+      <c r="D168" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="12">
+      <c r="I168" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5094,10 +5112,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="12" t="s">
+      <c r="J170" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5141,28 +5159,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="12">
+      <c r="A172" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="12">
+      <c r="C172" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5187,28 +5205,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="12">
+      <c r="C174" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="12">
+      <c r="D174" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="12">
+      <c r="I174" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5325,10 +5343,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="12" t="s">
+      <c r="J178" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5372,28 +5390,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="12">
+      <c r="A180" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="12">
+      <c r="C180" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5418,28 +5436,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="12">
+      <c r="C182" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="12">
+      <c r="D182" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="12">
+      <c r="I182" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5498,10 +5516,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="12" t="s">
+      <c r="J184" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5545,28 +5563,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="12">
+      <c r="A186" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="12">
+      <c r="C186" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5591,28 +5609,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="12">
+      <c r="B188" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="12">
+      <c r="C188" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="12">
+      <c r="D188" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="12">
+      <c r="E188" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="12">
+      <c r="F188" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="12">
+      <c r="G188" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="12">
+      <c r="H188" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="12">
+      <c r="I188" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5700,10 +5718,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="12" t="s">
+      <c r="J191" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5747,28 +5765,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="12">
+      <c r="A193" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="12">
+      <c r="B193" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="12">
+      <c r="C193" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="12">
+      <c r="E193" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="12">
+      <c r="F193" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="12">
+      <c r="G193" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="12">
+      <c r="H193" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5793,28 +5811,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="12">
+      <c r="B195" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="12">
+      <c r="C195" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="12">
+      <c r="D195" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="12">
+      <c r="E195" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="12">
+      <c r="F195" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="12">
+      <c r="G195" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="12">
+      <c r="H195" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="12">
+      <c r="I195" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5873,10 +5891,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="12" t="s">
+      <c r="J197" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5920,28 +5938,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="12">
+      <c r="A199" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="12">
+      <c r="C199" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5966,28 +5984,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="12">
+      <c r="B201" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="12">
+      <c r="C201" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="12">
+      <c r="D201" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="12">
+      <c r="E201" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="12">
+      <c r="F201" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="12">
+      <c r="G201" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="12">
+      <c r="H201" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="12">
+      <c r="I201" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6046,10 +6064,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="12" t="s">
+      <c r="J203" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6093,28 +6111,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="12">
+      <c r="A205" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="12">
+      <c r="C205" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6139,28 +6157,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="12">
+      <c r="C207" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="12">
+      <c r="D207" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="12">
+      <c r="I207" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6248,10 +6266,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="12" t="s">
+      <c r="J210" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6295,28 +6313,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="12">
+      <c r="A212" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="12">
+      <c r="C212" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6341,28 +6359,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="12">
+      <c r="C214" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="12">
+      <c r="D214" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="12">
+      <c r="I214" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6450,10 +6468,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="12" t="s">
+      <c r="J217" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6497,28 +6515,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="12">
+      <c r="A219" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="12">
+      <c r="C219" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="12">
+      <c r="F219" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="12">
+      <c r="G219" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="12">
+      <c r="H219" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6543,28 +6561,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="12">
+      <c r="C221" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="12">
+      <c r="D221" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="12">
+      <c r="I221" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6623,10 +6641,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="12" t="s">
+      <c r="J223" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6670,28 +6688,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="12">
+      <c r="A225" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="12">
+      <c r="C225" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6716,28 +6734,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="12">
+      <c r="C227" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="12">
+      <c r="D227" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="12">
+      <c r="I227" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6796,10 +6814,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="12" t="s">
+      <c r="J229" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6843,28 +6861,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="12">
+      <c r="A231" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="12">
+      <c r="B231" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="12">
+      <c r="C231" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="12">
+      <c r="E231" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="12">
+      <c r="F231" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="12">
+      <c r="G231" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="12">
+      <c r="H231" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6889,28 +6907,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="12">
+      <c r="C233" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="12">
+      <c r="D233" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="12">
+      <c r="E233" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="12">
+      <c r="F233" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="12">
+      <c r="G233" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="12">
+      <c r="H233" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="12">
+      <c r="I233" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6969,10 +6987,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="12" t="s">
+      <c r="J235" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -7016,28 +7034,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="12">
+      <c r="A237" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="12">
+      <c r="C237" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7062,28 +7080,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="12">
+      <c r="C239" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="12">
+      <c r="D239" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="12">
+      <c r="E239" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="12">
+      <c r="F239" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="12">
+      <c r="G239" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="12">
+      <c r="H239" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="12">
+      <c r="I239" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7142,10 +7160,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="12" t="s">
+      <c r="J241" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7189,28 +7207,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="12">
+      <c r="A243" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="12">
+      <c r="B243" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="12">
+      <c r="C243" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="12">
+      <c r="E243" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="12">
+      <c r="F243" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="12">
+      <c r="G243" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="12">
+      <c r="H243" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7235,28 +7253,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="12">
+      <c r="B245" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="12">
+      <c r="C245" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="12">
+      <c r="D245" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="12">
+      <c r="E245" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="12">
+      <c r="F245" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="12">
+      <c r="G245" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="12">
+      <c r="H245" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="12">
+      <c r="I245" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7315,10 +7333,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="12" t="s">
+      <c r="J247" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7362,28 +7380,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="12">
+      <c r="A249" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="12">
+      <c r="B249" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="12">
+      <c r="C249" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="12">
+      <c r="E249" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="12">
+      <c r="F249" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="12">
+      <c r="G249" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="12">
+      <c r="H249" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7408,28 +7426,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="12">
+      <c r="C251" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="12">
+      <c r="D251" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="12">
+      <c r="E251" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="12">
+      <c r="F251" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="12">
+      <c r="G251" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="12">
+      <c r="H251" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="12">
+      <c r="I251" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7517,10 +7535,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="12" t="s">
+      <c r="J254" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7564,28 +7582,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="12">
+      <c r="A256" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="12">
+      <c r="B256" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="12">
+      <c r="C256" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="12">
+      <c r="E256" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="12">
+      <c r="F256" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="12">
+      <c r="G256" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="12">
+      <c r="H256" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7610,28 +7628,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="12">
+      <c r="B258" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="12">
+      <c r="C258" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="12">
+      <c r="D258" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="12">
+      <c r="E258" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="12">
+      <c r="F258" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="12">
+      <c r="G258" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="12">
+      <c r="H258" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="12">
+      <c r="I258" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7690,10 +7708,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="12" t="s">
+      <c r="J260" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7737,28 +7755,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="12">
+      <c r="A262" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="12">
+      <c r="C262" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7783,28 +7801,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="12">
+      <c r="C264" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="12">
+      <c r="D264" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="12">
+      <c r="I264" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7863,10 +7881,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="12" t="s">
+      <c r="J266" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7910,28 +7928,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="12">
+      <c r="A268" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="12">
+      <c r="C268" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="12">
+      <c r="E268" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="12">
+      <c r="F268" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="12">
+      <c r="G268" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="12">
+      <c r="H268" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7956,28 +7974,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="12">
+      <c r="C270" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="12">
+      <c r="D270" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="12">
+      <c r="I270" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8036,10 +8054,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="12" t="s">
+      <c r="J272" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8083,28 +8101,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="12">
+      <c r="A274" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="12">
+      <c r="C274" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="12">
+      <c r="E274" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="12">
+      <c r="F274" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="12">
+      <c r="G274" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="12">
+      <c r="H274" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8129,28 +8147,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="12">
+      <c r="C276" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="12">
+      <c r="D276" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="12">
+      <c r="I276" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8209,10 +8227,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="12" t="s">
+      <c r="J278" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8256,28 +8274,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="12">
+      <c r="A280" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="12">
+      <c r="B280" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="12">
+      <c r="C280" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="12">
+      <c r="E280" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="12">
+      <c r="F280" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="12">
+      <c r="G280" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="12">
+      <c r="H280" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8302,28 +8320,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="12">
+      <c r="C282" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="12">
+      <c r="D282" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="12">
+      <c r="I282" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8382,10 +8400,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="12" t="s">
+      <c r="J284" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8429,28 +8447,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="12">
+      <c r="A286" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="12">
+      <c r="B286" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="12">
+      <c r="C286" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="12">
+      <c r="E286" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="12">
+      <c r="F286" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="12">
+      <c r="G286" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="12">
+      <c r="H286" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8475,28 +8493,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="12">
+      <c r="C288" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="12">
+      <c r="D288" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="12">
+      <c r="E288" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="12">
+      <c r="F288" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="12">
+      <c r="G288" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="12">
+      <c r="H288" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="12">
+      <c r="I288" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8555,10 +8573,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="12" t="s">
+      <c r="J290" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8602,28 +8620,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="12">
+      <c r="A292" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="12">
+      <c r="B292" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="12">
+      <c r="C292" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="12">
+      <c r="E292" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="12">
+      <c r="F292" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="12">
+      <c r="G292" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="12">
+      <c r="H292" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8648,28 +8666,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="12">
+      <c r="B294" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="12">
+      <c r="C294" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="12">
+      <c r="D294" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="12">
+      <c r="E294" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="12">
+      <c r="F294" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="12">
+      <c r="G294" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="12">
+      <c r="H294" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="12">
+      <c r="I294" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8728,10 +8746,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="12" t="s">
+      <c r="J296" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8775,28 +8793,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="12">
+      <c r="A298" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="12">
+      <c r="B298" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="12">
+      <c r="C298" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="12">
+      <c r="E298" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="12">
+      <c r="F298" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="12">
+      <c r="G298" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="12">
+      <c r="H298" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8821,28 +8839,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="12">
+      <c r="B300" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="12">
+      <c r="C300" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="12">
+      <c r="D300" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="12">
+      <c r="E300" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="12">
+      <c r="F300" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="12">
+      <c r="G300" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="12">
+      <c r="H300" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="12">
+      <c r="I300" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8901,10 +8919,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="12" t="s">
+      <c r="J302" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8948,28 +8966,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="12">
+      <c r="A304" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="12">
+      <c r="B304" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="12">
+      <c r="C304" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="12">
+      <c r="E304" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="12">
+      <c r="F304" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="12">
+      <c r="G304" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="12">
+      <c r="H304" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8994,28 +9012,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="12">
+      <c r="C306" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="12">
+      <c r="D306" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="12">
+      <c r="E306" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="12">
+      <c r="F306" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="12">
+      <c r="G306" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="12">
+      <c r="H306" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="12">
+      <c r="I306" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9074,10 +9092,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="12" t="s">
+      <c r="J308" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9121,28 +9139,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="12">
+      <c r="A310" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="12">
+      <c r="B310" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="12">
+      <c r="C310" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="12">
+      <c r="E310" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="12">
+      <c r="F310" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="12">
+      <c r="G310" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="12">
+      <c r="H310" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9167,28 +9185,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="12">
+      <c r="B312" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="12">
+      <c r="C312" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="12">
+      <c r="D312" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="12">
+      <c r="E312" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="12">
+      <c r="F312" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="12">
+      <c r="G312" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="12">
+      <c r="H312" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="12">
+      <c r="I312" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9247,10 +9265,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="12" t="s">
+      <c r="J314" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9294,28 +9312,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="12">
+      <c r="A316" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="12">
+      <c r="B316" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="12">
+      <c r="C316" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="12">
+      <c r="E316" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="12">
+      <c r="F316" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="12">
+      <c r="G316" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="12">
+      <c r="H316" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9340,28 +9358,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="12">
+      <c r="B318" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="12">
+      <c r="C318" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="12">
+      <c r="D318" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="12">
+      <c r="E318" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="12">
+      <c r="F318" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="12">
+      <c r="G318" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="12">
+      <c r="H318" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="12">
+      <c r="I318" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9420,10 +9438,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="12" t="s">
+      <c r="J320" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9467,28 +9485,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="12">
+      <c r="A322" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="12">
+      <c r="B322" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="12">
+      <c r="C322" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="12">
+      <c r="E322" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="12">
+      <c r="F322" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="12">
+      <c r="G322" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="12">
+      <c r="H322" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9513,28 +9531,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="12">
+      <c r="B324" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="12">
+      <c r="C324" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="12">
+      <c r="D324" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="12">
+      <c r="E324" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="12">
+      <c r="F324" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="12">
+      <c r="G324" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="12">
+      <c r="H324" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="12">
+      <c r="I324" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9593,10 +9611,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="12" t="s">
+      <c r="J326" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9640,28 +9658,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="12">
+      <c r="A328" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="12">
+      <c r="B328" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="12">
+      <c r="C328" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="12">
+      <c r="E328" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="12">
+      <c r="F328" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="12">
+      <c r="G328" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="12">
+      <c r="H328" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9686,28 +9704,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="12">
+      <c r="B330" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="12">
+      <c r="C330" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="12">
+      <c r="D330" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="12">
+      <c r="E330" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="12">
+      <c r="F330" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="12">
+      <c r="G330" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="12">
+      <c r="H330" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="12">
+      <c r="I330" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9766,10 +9784,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="12" t="s">
+      <c r="J332" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9813,28 +9831,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="12">
+      <c r="A334" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="12">
+      <c r="B334" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="12">
+      <c r="C334" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="12">
+      <c r="E334" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="12">
+      <c r="F334" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="12">
+      <c r="G334" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="12">
+      <c r="H334" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9859,28 +9877,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="12">
+      <c r="B336" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="12">
+      <c r="C336" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="12">
+      <c r="D336" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="12">
+      <c r="E336" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="12">
+      <c r="F336" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="12">
+      <c r="G336" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="12">
+      <c r="H336" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="12">
+      <c r="I336" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9939,10 +9957,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="12" t="s">
+      <c r="J338" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9986,28 +10004,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="12">
+      <c r="A340" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="12">
+      <c r="B340" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="12">
+      <c r="C340" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="12">
+      <c r="E340" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="12">
+      <c r="F340" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="12">
+      <c r="G340" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="12">
+      <c r="H340" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10032,28 +10050,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="12">
+      <c r="B342" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="12">
+      <c r="C342" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="12">
+      <c r="D342" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="12">
+      <c r="E342" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="12">
+      <c r="F342" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="12">
+      <c r="G342" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="12">
+      <c r="H342" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="12">
+      <c r="I342" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10112,10 +10130,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="12" t="s">
+      <c r="J344" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10159,28 +10177,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="12">
+      <c r="A346" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="12">
+      <c r="B346" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="12">
+      <c r="C346" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="12">
+      <c r="E346" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="12">
+      <c r="F346" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="12">
+      <c r="G346" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="12">
+      <c r="H346" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10205,28 +10223,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="12">
+      <c r="B348" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="12">
+      <c r="C348" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="12">
+      <c r="D348" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="12">
+      <c r="E348" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="12">
+      <c r="F348" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="12">
+      <c r="G348" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="12">
+      <c r="H348" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="12">
+      <c r="I348" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10314,10 +10332,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="12" t="s">
+      <c r="J351" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10361,28 +10379,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="12">
+      <c r="A353" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="12">
+      <c r="B353" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="12">
+      <c r="C353" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="12">
+      <c r="E353" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="12">
+      <c r="F353" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="12">
+      <c r="G353" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="12">
+      <c r="H353" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10407,28 +10425,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="12">
+      <c r="B355" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="12">
+      <c r="C355" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="12">
+      <c r="D355" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="12">
+      <c r="E355" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="12">
+      <c r="F355" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="12">
+      <c r="G355" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="12">
+      <c r="H355" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="12">
+      <c r="I355" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10487,10 +10505,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="12" t="s">
+      <c r="J357" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10534,28 +10552,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="12">
+      <c r="A359" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="12">
+      <c r="B359" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="12">
+      <c r="C359" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="12">
+      <c r="E359" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="12">
+      <c r="F359" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="12">
+      <c r="G359" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="12">
+      <c r="H359" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10580,28 +10598,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="12">
+      <c r="B361" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="12">
+      <c r="C361" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="12">
+      <c r="D361" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="12">
+      <c r="E361" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="12">
+      <c r="F361" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="12">
+      <c r="G361" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="12">
+      <c r="H361" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="12">
+      <c r="I361" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10660,10 +10678,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="12" t="s">
+      <c r="J363" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10707,28 +10725,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="12">
+      <c r="A365" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="12">
+      <c r="B365" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="12">
+      <c r="C365" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="12">
+      <c r="E365" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="12">
+      <c r="F365" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="12">
+      <c r="G365" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="12">
+      <c r="H365" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10753,28 +10771,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="12">
+      <c r="B367" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="12">
+      <c r="C367" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="12">
+      <c r="D367" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="12">
+      <c r="E367" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="12">
+      <c r="F367" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="12">
+      <c r="G367" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="12">
+      <c r="H367" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="12">
+      <c r="I367" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10833,10 +10851,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="12" t="s">
+      <c r="J369" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10880,28 +10898,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="12">
+      <c r="A371" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="12">
+      <c r="B371" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="12">
+      <c r="C371" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="12">
+      <c r="E371" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="12">
+      <c r="F371" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="12">
+      <c r="G371" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="12">
+      <c r="H371" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10926,28 +10944,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="12">
+      <c r="B373" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="12">
+      <c r="C373" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="12">
+      <c r="D373" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="12">
+      <c r="E373" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="12">
+      <c r="F373" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="12">
+      <c r="G373" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="12">
+      <c r="H373" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="12">
+      <c r="I373" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11006,10 +11024,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="12" t="s">
+      <c r="J375" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -11053,28 +11071,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="12">
+      <c r="A377" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="12">
+      <c r="B377" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="12">
+      <c r="C377" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="12">
+      <c r="E377" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="12">
+      <c r="F377" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="12">
+      <c r="G377" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="12">
+      <c r="H377" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11099,28 +11117,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="12">
+      <c r="B379" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="12">
+      <c r="C379" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="12">
+      <c r="D379" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="12">
+      <c r="E379" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="12">
+      <c r="F379" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="12">
+      <c r="G379" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="12">
+      <c r="H379" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="12">
+      <c r="I379" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11179,10 +11197,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="12" t="s">
+      <c r="J381" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11226,28 +11244,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="12">
+      <c r="A383" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="12">
+      <c r="B383" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="12">
+      <c r="C383" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="12">
+      <c r="E383" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="12">
+      <c r="F383" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="12">
+      <c r="G383" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="12">
+      <c r="H383" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11272,28 +11290,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="12">
+      <c r="B385" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="12">
+      <c r="C385" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="12">
+      <c r="D385" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="12">
+      <c r="E385" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="12">
+      <c r="F385" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="12">
+      <c r="G385" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="12">
+      <c r="H385" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="12">
+      <c r="I385" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11352,10 +11370,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="12" t="s">
+      <c r="J387" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11399,28 +11417,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="12">
+      <c r="A389" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="12">
+      <c r="B389" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="12">
+      <c r="C389" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="12">
+      <c r="E389" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="12">
+      <c r="F389" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="12">
+      <c r="G389" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="12">
+      <c r="H389" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11445,28 +11463,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="12">
+      <c r="B391" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="12">
+      <c r="C391" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="12">
+      <c r="D391" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="12">
+      <c r="E391" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="12">
+      <c r="F391" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="12">
+      <c r="G391" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="12">
+      <c r="H391" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="12">
+      <c r="I391" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11525,10 +11543,10 @@
       <c r="I393">
         <f>((C393-C392)^2+(D393- D392)^2)^.5</f>
       </c>
-      <c r="J393" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K393" s="12" t="s">
+      <c r="J393" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K393" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L393" t="n">
@@ -11572,28 +11590,28 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="s" s="12">
+      <c r="A395" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B395" t="s" s="12">
+      <c r="B395" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C395" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D395" t="s" s="12">
+      <c r="C395" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D395" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E395" t="s" s="12">
+      <c r="E395" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F395" t="s" s="12">
+      <c r="F395" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G395" t="s" s="12">
+      <c r="G395" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H395" t="s" s="12">
+      <c r="H395" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11618,28 +11636,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="B397" t="s" s="12">
+      <c r="B397" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C397" t="s" s="12">
+      <c r="C397" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D397" t="s" s="12">
+      <c r="D397" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E397" t="s" s="12">
+      <c r="E397" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F397" t="s" s="12">
+      <c r="F397" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G397" t="s" s="12">
+      <c r="G397" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H397" t="s" s="12">
+      <c r="H397" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I397" t="s" s="12">
+      <c r="I397" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11698,10 +11716,10 @@
       <c r="I399">
         <f>((C399-C398)^2+(D399- D398)^2)^.5</f>
       </c>
-      <c r="J399" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K399" s="12" t="s">
+      <c r="J399" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K399" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L399" t="n">
@@ -11745,28 +11763,28 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="s" s="12">
+      <c r="A401" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B401" t="s" s="12">
+      <c r="B401" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C401" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D401" t="s" s="12">
+      <c r="C401" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D401" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E401" t="s" s="12">
+      <c r="E401" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F401" t="s" s="12">
+      <c r="F401" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G401" t="s" s="12">
+      <c r="G401" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H401" t="s" s="12">
+      <c r="H401" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11791,28 +11809,28 @@
       </c>
     </row>
     <row r="403">
-      <c r="B403" t="s" s="12">
+      <c r="B403" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C403" t="s" s="12">
+      <c r="C403" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D403" t="s" s="12">
+      <c r="D403" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E403" t="s" s="12">
+      <c r="E403" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F403" t="s" s="12">
+      <c r="F403" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G403" t="s" s="12">
+      <c r="G403" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H403" t="s" s="12">
+      <c r="H403" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I403" t="s" s="12">
+      <c r="I403" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11871,10 +11889,10 @@
       <c r="I405">
         <f>((C405-C404)^2+(D405- D404)^2)^.5</f>
       </c>
-      <c r="J405" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K405" s="12" t="s">
+      <c r="J405" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K405" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L405" t="n">
@@ -11918,28 +11936,28 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="s" s="12">
+      <c r="A407" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B407" t="s" s="12">
+      <c r="B407" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C407" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D407" t="s" s="12">
+      <c r="C407" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D407" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E407" t="s" s="12">
+      <c r="E407" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F407" t="s" s="12">
+      <c r="F407" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G407" t="s" s="12">
+      <c r="G407" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H407" t="s" s="12">
+      <c r="H407" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11964,28 +11982,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="B409" t="s" s="12">
+      <c r="B409" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C409" t="s" s="12">
+      <c r="C409" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D409" t="s" s="12">
+      <c r="D409" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E409" t="s" s="12">
+      <c r="E409" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F409" t="s" s="12">
+      <c r="F409" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G409" t="s" s="12">
+      <c r="G409" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H409" t="s" s="12">
+      <c r="H409" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I409" t="s" s="12">
+      <c r="I409" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12044,10 +12062,10 @@
       <c r="I411">
         <f>((C411-C410)^2+(D411- D410)^2)^.5</f>
       </c>
-      <c r="J411" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K411" s="12" t="s">
+      <c r="J411" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K411" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L411" t="n">
@@ -12091,28 +12109,28 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="s" s="12">
+      <c r="A413" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B413" t="s" s="12">
+      <c r="B413" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C413" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D413" t="s" s="12">
+      <c r="C413" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D413" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E413" t="s" s="12">
+      <c r="E413" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F413" t="s" s="12">
+      <c r="F413" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G413" t="s" s="12">
+      <c r="G413" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H413" t="s" s="12">
+      <c r="H413" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12137,28 +12155,28 @@
       </c>
     </row>
     <row r="415">
-      <c r="B415" t="s" s="12">
+      <c r="B415" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C415" t="s" s="12">
+      <c r="C415" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D415" t="s" s="12">
+      <c r="D415" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E415" t="s" s="12">
+      <c r="E415" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F415" t="s" s="12">
+      <c r="F415" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G415" t="s" s="12">
+      <c r="G415" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H415" t="s" s="12">
+      <c r="H415" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I415" t="s" s="12">
+      <c r="I415" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12217,10 +12235,10 @@
       <c r="I417">
         <f>((C417-C416)^2+(D417- D416)^2)^.5</f>
       </c>
-      <c r="J417" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K417" s="12" t="s">
+      <c r="J417" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K417" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L417" t="n">
@@ -12264,28 +12282,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="s" s="12">
+      <c r="A419" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B419" t="s" s="12">
+      <c r="B419" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C419" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D419" t="s" s="12">
+      <c r="C419" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D419" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E419" t="s" s="12">
+      <c r="E419" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F419" t="s" s="12">
+      <c r="F419" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G419" t="s" s="12">
+      <c r="G419" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H419" t="s" s="12">
+      <c r="H419" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12310,28 +12328,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="B421" t="s" s="12">
+      <c r="B421" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C421" t="s" s="12">
+      <c r="C421" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D421" t="s" s="12">
+      <c r="D421" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E421" t="s" s="12">
+      <c r="E421" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F421" t="s" s="12">
+      <c r="F421" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G421" t="s" s="12">
+      <c r="G421" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H421" t="s" s="12">
+      <c r="H421" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I421" t="s" s="12">
+      <c r="I421" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12390,10 +12408,10 @@
       <c r="I423">
         <f>((C423-C422)^2+(D423- D422)^2)^.5</f>
       </c>
-      <c r="J423" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K423" s="12" t="s">
+      <c r="J423" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K423" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L423" t="n">
@@ -12437,28 +12455,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="s" s="12">
+      <c r="A425" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B425" t="s" s="12">
+      <c r="B425" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C425" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D425" t="s" s="12">
+      <c r="C425" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D425" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E425" t="s" s="12">
+      <c r="E425" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F425" t="s" s="12">
+      <c r="F425" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G425" t="s" s="12">
+      <c r="G425" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H425" t="s" s="12">
+      <c r="H425" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12483,28 +12501,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="B427" t="s" s="12">
+      <c r="B427" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C427" t="s" s="12">
+      <c r="C427" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D427" t="s" s="12">
+      <c r="D427" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E427" t="s" s="12">
+      <c r="E427" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F427" t="s" s="12">
+      <c r="F427" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G427" t="s" s="12">
+      <c r="G427" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H427" t="s" s="12">
+      <c r="H427" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I427" t="s" s="12">
+      <c r="I427" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12650,10 +12668,10 @@
       <c r="I432">
         <f>((C432-C431)^2+(D432- D431)^2)^.5</f>
       </c>
-      <c r="J432" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K432" s="12" t="s">
+      <c r="J432" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K432" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L432" t="n">
@@ -12697,28 +12715,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="s" s="12">
+      <c r="A434" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B434" t="s" s="12">
+      <c r="B434" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C434" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D434" t="s" s="12">
+      <c r="C434" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D434" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E434" t="s" s="12">
+      <c r="E434" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F434" t="s" s="12">
+      <c r="F434" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G434" t="s" s="12">
+      <c r="G434" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H434" t="s" s="12">
+      <c r="H434" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12743,28 +12761,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="B436" t="s" s="12">
+      <c r="B436" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C436" t="s" s="12">
+      <c r="C436" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D436" t="s" s="12">
+      <c r="D436" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E436" t="s" s="12">
+      <c r="E436" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F436" t="s" s="12">
+      <c r="F436" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G436" t="s" s="12">
+      <c r="G436" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H436" t="s" s="12">
+      <c r="H436" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I436" t="s" s="12">
+      <c r="I436" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12823,10 +12841,10 @@
       <c r="I438">
         <f>((C438-C437)^2+(D438- D437)^2)^.5</f>
       </c>
-      <c r="J438" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K438" s="12" t="s">
+      <c r="J438" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K438" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L438" t="n">
@@ -12870,28 +12888,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="s" s="12">
+      <c r="A440" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B440" t="s" s="12">
+      <c r="B440" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C440" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D440" t="s" s="12">
+      <c r="C440" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D440" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E440" t="s" s="12">
+      <c r="E440" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F440" t="s" s="12">
+      <c r="F440" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G440" t="s" s="12">
+      <c r="G440" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H440" t="s" s="12">
+      <c r="H440" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12916,28 +12934,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="B442" t="s" s="12">
+      <c r="B442" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C442" t="s" s="12">
+      <c r="C442" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D442" t="s" s="12">
+      <c r="D442" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E442" t="s" s="12">
+      <c r="E442" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F442" t="s" s="12">
+      <c r="F442" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G442" t="s" s="12">
+      <c r="G442" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H442" t="s" s="12">
+      <c r="H442" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I442" t="s" s="12">
+      <c r="I442" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12996,10 +13014,10 @@
       <c r="I444">
         <f>((C444-C443)^2+(D444- D443)^2)^.5</f>
       </c>
-      <c r="J444" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K444" s="12" t="s">
+      <c r="J444" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K444" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L444" t="n">
@@ -13043,28 +13061,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="s" s="12">
+      <c r="A446" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B446" t="s" s="12">
+      <c r="B446" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C446" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D446" t="s" s="12">
+      <c r="C446" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D446" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E446" t="s" s="12">
+      <c r="E446" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F446" t="s" s="12">
+      <c r="F446" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G446" t="s" s="12">
+      <c r="G446" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H446" t="s" s="12">
+      <c r="H446" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13089,28 +13107,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="B448" t="s" s="12">
+      <c r="B448" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C448" t="s" s="12">
+      <c r="C448" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D448" t="s" s="12">
+      <c r="D448" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E448" t="s" s="12">
+      <c r="E448" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F448" t="s" s="12">
+      <c r="F448" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G448" t="s" s="12">
+      <c r="G448" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H448" t="s" s="12">
+      <c r="H448" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I448" t="s" s="12">
+      <c r="I448" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13169,10 +13187,10 @@
       <c r="I450">
         <f>((C450-C449)^2+(D450- D449)^2)^.5</f>
       </c>
-      <c r="J450" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K450" s="12" t="s">
+      <c r="J450" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K450" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L450" t="n">
@@ -13216,28 +13234,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="s" s="12">
+      <c r="A452" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B452" t="s" s="12">
+      <c r="B452" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C452" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D452" t="s" s="12">
+      <c r="C452" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D452" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E452" t="s" s="12">
+      <c r="E452" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F452" t="s" s="12">
+      <c r="F452" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G452" t="s" s="12">
+      <c r="G452" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H452" t="s" s="12">
+      <c r="H452" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13262,28 +13280,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="B454" t="s" s="12">
+      <c r="B454" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C454" t="s" s="12">
+      <c r="C454" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D454" t="s" s="12">
+      <c r="D454" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E454" t="s" s="12">
+      <c r="E454" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F454" t="s" s="12">
+      <c r="F454" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G454" t="s" s="12">
+      <c r="G454" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H454" t="s" s="12">
+      <c r="H454" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I454" t="s" s="12">
+      <c r="I454" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13342,10 +13360,10 @@
       <c r="I456">
         <f>((C456-C455)^2+(D456- D455)^2)^.5</f>
       </c>
-      <c r="J456" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K456" s="12" t="s">
+      <c r="J456" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K456" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L456" t="n">
@@ -13389,28 +13407,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="s" s="12">
+      <c r="A458" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B458" t="s" s="12">
+      <c r="B458" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C458" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D458" t="s" s="12">
+      <c r="C458" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D458" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E458" t="s" s="12">
+      <c r="E458" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F458" t="s" s="12">
+      <c r="F458" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G458" t="s" s="12">
+      <c r="G458" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H458" t="s" s="12">
+      <c r="H458" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13435,28 +13453,28 @@
       </c>
     </row>
     <row r="460">
-      <c r="B460" t="s" s="12">
+      <c r="B460" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C460" t="s" s="12">
+      <c r="C460" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D460" t="s" s="12">
+      <c r="D460" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E460" t="s" s="12">
+      <c r="E460" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F460" t="s" s="12">
+      <c r="F460" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G460" t="s" s="12">
+      <c r="G460" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H460" t="s" s="12">
+      <c r="H460" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I460" t="s" s="12">
+      <c r="I460" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13515,10 +13533,10 @@
       <c r="I462">
         <f>((C462-C461)^2+(D462- D461)^2)^.5</f>
       </c>
-      <c r="J462" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K462" s="12" t="s">
+      <c r="J462" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K462" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L462" t="n">
@@ -13562,28 +13580,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="s" s="12">
+      <c r="A464" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B464" t="s" s="12">
+      <c r="B464" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C464" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D464" t="s" s="12">
+      <c r="C464" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D464" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E464" t="s" s="12">
+      <c r="E464" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F464" t="s" s="12">
+      <c r="F464" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G464" t="s" s="12">
+      <c r="G464" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H464" t="s" s="12">
+      <c r="H464" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13608,28 +13626,28 @@
       </c>
     </row>
     <row r="466">
-      <c r="B466" t="s" s="12">
+      <c r="B466" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C466" t="s" s="12">
+      <c r="C466" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D466" t="s" s="12">
+      <c r="D466" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E466" t="s" s="12">
+      <c r="E466" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F466" t="s" s="12">
+      <c r="F466" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G466" t="s" s="12">
+      <c r="G466" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H466" t="s" s="12">
+      <c r="H466" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I466" t="s" s="12">
+      <c r="I466" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13688,10 +13706,10 @@
       <c r="I468">
         <f>((C468-C467)^2+(D468- D467)^2)^.5</f>
       </c>
-      <c r="J468" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K468" s="12" t="s">
+      <c r="J468" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K468" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L468" t="n">
@@ -13735,28 +13753,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="s" s="12">
+      <c r="A470" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B470" t="s" s="12">
+      <c r="B470" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C470" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D470" t="s" s="12">
+      <c r="C470" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E470" t="s" s="12">
+      <c r="E470" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F470" t="s" s="12">
+      <c r="F470" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G470" t="s" s="12">
+      <c r="G470" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H470" t="s" s="12">
+      <c r="H470" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13781,28 +13799,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="B472" t="s" s="12">
+      <c r="B472" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C472" t="s" s="12">
+      <c r="C472" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D472" t="s" s="12">
+      <c r="D472" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E472" t="s" s="12">
+      <c r="E472" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F472" t="s" s="12">
+      <c r="F472" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G472" t="s" s="12">
+      <c r="G472" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H472" t="s" s="12">
+      <c r="H472" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I472" t="s" s="12">
+      <c r="I472" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13861,10 +13879,10 @@
       <c r="I474">
         <f>((C474-C473)^2+(D474- D473)^2)^.5</f>
       </c>
-      <c r="J474" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K474" s="12" t="s">
+      <c r="J474" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K474" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L474" t="n">
@@ -13908,28 +13926,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="s" s="12">
+      <c r="A476" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B476" t="s" s="12">
+      <c r="B476" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C476" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D476" t="s" s="12">
+      <c r="C476" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D476" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E476" t="s" s="12">
+      <c r="E476" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F476" t="s" s="12">
+      <c r="F476" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G476" t="s" s="12">
+      <c r="G476" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H476" t="s" s="12">
+      <c r="H476" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13954,28 +13972,28 @@
       </c>
     </row>
     <row r="478">
-      <c r="B478" t="s" s="12">
+      <c r="B478" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C478" t="s" s="12">
+      <c r="C478" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D478" t="s" s="12">
+      <c r="D478" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E478" t="s" s="12">
+      <c r="E478" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F478" t="s" s="12">
+      <c r="F478" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G478" t="s" s="12">
+      <c r="G478" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H478" t="s" s="12">
+      <c r="H478" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I478" t="s" s="12">
+      <c r="I478" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14034,10 +14052,10 @@
       <c r="I480">
         <f>((C480-C479)^2+(D480- D479)^2)^.5</f>
       </c>
-      <c r="J480" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K480" s="12" t="s">
+      <c r="J480" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K480" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L480" t="n">
@@ -14081,28 +14099,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="s" s="12">
+      <c r="A482" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B482" t="s" s="12">
+      <c r="B482" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C482" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D482" t="s" s="12">
+      <c r="C482" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E482" t="s" s="12">
+      <c r="E482" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F482" t="s" s="12">
+      <c r="F482" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G482" t="s" s="12">
+      <c r="G482" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H482" t="s" s="12">
+      <c r="H482" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14127,28 +14145,28 @@
       </c>
     </row>
     <row r="484">
-      <c r="B484" t="s" s="12">
+      <c r="B484" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C484" t="s" s="12">
+      <c r="C484" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D484" t="s" s="12">
+      <c r="D484" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E484" t="s" s="12">
+      <c r="E484" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F484" t="s" s="12">
+      <c r="F484" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G484" t="s" s="12">
+      <c r="G484" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H484" t="s" s="12">
+      <c r="H484" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I484" t="s" s="12">
+      <c r="I484" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14207,10 +14225,10 @@
       <c r="I486">
         <f>((C486-C485)^2+(D486- D485)^2)^.5</f>
       </c>
-      <c r="J486" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K486" s="12" t="s">
+      <c r="J486" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K486" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L486" t="n">
